--- a/重庆二师_Dev/doc/ods-fdm.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="187">
   <si>
     <t>字段名</t>
   </si>
@@ -333,11 +333,308 @@
     <t>库室名称</t>
   </si>
   <si>
-    <t>表名：读者信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：图书借阅</t>
+    <t>TSBH</t>
+  </si>
+  <si>
+    <t>图书编号</t>
+  </si>
+  <si>
+    <t>tushu_gcsml</t>
+  </si>
+  <si>
+    <t>ZJM</t>
+  </si>
+  <si>
+    <t>TSTXM</t>
+  </si>
+  <si>
+    <t>图书条形码</t>
+  </si>
+  <si>
+    <t>BZBM?</t>
+  </si>
+  <si>
+    <t>ZBT</t>
+  </si>
+  <si>
+    <t>正标题</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>BLBT</t>
+  </si>
+  <si>
+    <t>并列标题</t>
+  </si>
+  <si>
+    <t>FBT</t>
+  </si>
+  <si>
+    <t>副标题</t>
+  </si>
+  <si>
+    <t>JSGJZ</t>
+  </si>
+  <si>
+    <t>检索关键字</t>
+  </si>
+  <si>
+    <t>TMSX</t>
+  </si>
+  <si>
+    <t>SHH</t>
+  </si>
+  <si>
+    <t>索书号</t>
+  </si>
+  <si>
+    <t>TSCBH</t>
+  </si>
+  <si>
+    <r>
+      <t>图书出版号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISBN</t>
+    </r>
+  </si>
+  <si>
+    <t>DYZZ</t>
+  </si>
+  <si>
+    <t>第一作者</t>
+  </si>
+  <si>
+    <r>
+      <t>ZRZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（需要删除末尾是编、编著、著等字）</t>
+    </r>
+  </si>
+  <si>
+    <t>QTZZ</t>
+  </si>
+  <si>
+    <t>其他作者</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>单价（元）</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>WXLXM</t>
+  </si>
+  <si>
+    <t>文献类型码</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>ZDM</t>
+  </si>
+  <si>
+    <t>装订码</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>FLH</t>
+  </si>
+  <si>
+    <t>分类号</t>
+  </si>
+  <si>
+    <t>ZGYZM</t>
+  </si>
+  <si>
+    <t>中国语种码</t>
+  </si>
+  <si>
+    <t>YZM</t>
+  </si>
+  <si>
+    <t>语种码</t>
+  </si>
+  <si>
+    <t>YZ</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>开本</t>
+  </si>
+  <si>
+    <t>YS</t>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>版次</t>
+  </si>
+  <si>
+    <t>TSFJMC</t>
+  </si>
+  <si>
+    <t>图书附件名称</t>
+  </si>
+  <si>
+    <t>指系列丛书名称</t>
+  </si>
+  <si>
+    <t>CSM</t>
+  </si>
+  <si>
+    <t>CSBZ</t>
+  </si>
+  <si>
+    <t>丛书编者</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>出版社名称</t>
+  </si>
+  <si>
+    <t>CBSJBM</t>
+  </si>
+  <si>
+    <t>出版社级别码</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>出版地</t>
+  </si>
+  <si>
+    <t>CBRQ</t>
+  </si>
+  <si>
+    <t>出版日期</t>
+  </si>
+  <si>
+    <t>FXDW</t>
+  </si>
+  <si>
+    <t>发行单位</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>TSZTM</t>
+  </si>
+  <si>
+    <t>图书期刊状态码</t>
+  </si>
+  <si>
+    <t>WXLX</t>
+  </si>
+  <si>
+    <t>文献类型</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>册数</t>
+  </si>
+  <si>
+    <t>KWJS</t>
+  </si>
+  <si>
+    <t>可外借数</t>
+  </si>
+  <si>
+    <t>YWJS</t>
+  </si>
+  <si>
+    <t>已外借数</t>
+  </si>
+  <si>
+    <t>YYS</t>
+  </si>
+  <si>
+    <t>预约数</t>
+  </si>
+  <si>
+    <t>TXYS</t>
+  </si>
+  <si>
+    <t>图象页数</t>
+  </si>
+  <si>
+    <t>SYWJCS</t>
+  </si>
+  <si>
+    <t>上月外借册数</t>
+  </si>
+  <si>
+    <t>BYWJCS</t>
+  </si>
+  <si>
+    <t>本月外借册数</t>
+  </si>
+  <si>
+    <t>QNWJCS</t>
+  </si>
+  <si>
+    <t>去年外借册数</t>
+  </si>
+  <si>
+    <t>JNWJCS</t>
+  </si>
+  <si>
+    <t>今年外借册数</t>
+  </si>
+  <si>
+    <t>表名：读者信息表
+edu_fdm_ts_dzxx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：图书借阅
+edu_fdm_ts_jyjl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：图书信息
+edu_fdm_ts_tsxx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +642,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +753,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -540,13 +847,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -599,10 +909,16 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -919,9 +1235,9 @@
     <col min="8" max="8" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>95</v>
+    <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1016,7 +1332,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -1280,7 +1596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -1304,7 +1620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1328,7 +1644,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1400,9 +1716,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>96</v>
+    <row r="26" spans="1:8" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1471,7 +1787,7 @@
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1640,6 +1956,969 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="6">
+        <v>11</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="6">
+        <v>30</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="6">
+        <v>180</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="6">
+        <v>180</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="6">
+        <v>180</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6">
+        <v>30</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="6">
+        <v>50</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="6">
+        <v>30</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="6">
+        <v>30</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6">
+        <v>90</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="6">
+        <v>20</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="6">
+        <v>3</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="6">
+        <v>30</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="6">
+        <v>4</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="6">
+        <v>30</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="6">
+        <v>180</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="6">
+        <v>180</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="6">
+        <v>180</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="6">
+        <v>180</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="6">
+        <v>60</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="6">
+        <v>8</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="6">
+        <v>60</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="6">
+        <v>8</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="6">
+        <v>4</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="6">
+        <v>4</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="6">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="6">
+        <v>4</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="6">
+        <v>4</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="6">
+        <v>4</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="6">
+        <v>4</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="6">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="6">
+        <v>4</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="6">
+        <v>4</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/重庆二师_Dev/doc/ods-fdm.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="图书" sheetId="1" r:id="rId1"/>
+    <sheet name="图书（3）" sheetId="1" r:id="rId1"/>
     <sheet name="教务" sheetId="2" r:id="rId2"/>
     <sheet name="学工" sheetId="3" r:id="rId3"/>
     <sheet name="科研主题" sheetId="4" r:id="rId4"/>
@@ -866,10 +866,6 @@
   </si>
   <si>
     <t>职称</t>
-  </si>
-  <si>
-    <t>edu_fdm_jzg)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>KCH</t>
@@ -3368,6 +3364,10 @@
   </si>
   <si>
     <t>今年外借册数</t>
+  </si>
+  <si>
+    <t>edu_fdm_jzg)教职工基本信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4008,7 +4008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -4824,7 +4824,7 @@
         <v>90</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5010,7 +5010,7 @@
         <v>90</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5110,7 +5110,7 @@
         <v>122</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -5134,7 +5134,7 @@
         <v>123</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -5156,7 +5156,7 @@
         <v>124</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -5180,7 +5180,7 @@
         <v>126</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -5202,7 +5202,7 @@
         <v>127</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>44</v>
@@ -5224,7 +5224,7 @@
         <v>128</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -5248,7 +5248,7 @@
         <v>129</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -5270,7 +5270,7 @@
         <v>86</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>10</v>
@@ -5294,7 +5294,7 @@
         <v>131</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -5316,7 +5316,7 @@
         <v>132</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -5340,7 +5340,7 @@
         <v>133</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>121</v>
@@ -5362,7 +5362,7 @@
         <v>134</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -5386,7 +5386,7 @@
         <v>135</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -5410,7 +5410,7 @@
         <v>136</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -5432,7 +5432,7 @@
         <v>137</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -5454,7 +5454,7 @@
         <v>138</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -5476,7 +5476,7 @@
         <v>139</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -5500,7 +5500,7 @@
         <v>140</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>44</v>
@@ -5524,7 +5524,7 @@
         <v>141</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>44</v>
@@ -5548,7 +5548,7 @@
         <v>142</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>44</v>
@@ -5572,7 +5572,7 @@
         <v>143</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>44</v>
@@ -5596,7 +5596,7 @@
         <v>144</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>44</v>
@@ -5620,7 +5620,7 @@
         <v>145</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>44</v>
@@ -5644,7 +5644,7 @@
         <v>146</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>44</v>
@@ -5668,7 +5668,7 @@
         <v>147</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>44</v>
@@ -5692,7 +5692,7 @@
         <v>148</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>44</v>
@@ -5746,9 +5746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5757,7 +5755,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>249</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -6526,7 +6524,7 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -6557,10 +6555,10 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>10</v>
@@ -6570,17 +6568,17 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>10</v>
@@ -6590,17 +6588,17 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>10</v>
@@ -6610,37 +6608,37 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>10</v>
@@ -6650,77 +6648,77 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="C57" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -6730,17 +6728,17 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -6750,17 +6748,17 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -6770,17 +6768,17 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -6790,17 +6788,17 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -6810,37 +6808,37 @@
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -6850,14 +6848,14 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -6888,10 +6886,10 @@
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -6901,17 +6899,17 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -6921,17 +6919,17 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -6941,7 +6939,7 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="7"/>
@@ -6951,7 +6949,7 @@
         <v>13</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -6961,17 +6959,17 @@
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -6981,17 +6979,17 @@
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -7001,17 +6999,17 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>10</v>
@@ -7021,17 +7019,17 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>10</v>
@@ -7041,17 +7039,17 @@
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>10</v>
@@ -7061,37 +7059,37 @@
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>10</v>
@@ -7101,17 +7099,17 @@
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>10</v>
@@ -7121,57 +7119,57 @@
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>10</v>
@@ -7181,17 +7179,17 @@
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>10</v>
@@ -7201,17 +7199,17 @@
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>10</v>
@@ -7221,17 +7219,17 @@
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
@@ -7241,17 +7239,17 @@
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
@@ -7261,17 +7259,17 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>10</v>
@@ -7281,17 +7279,17 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -7301,17 +7299,17 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>10</v>
@@ -7321,17 +7319,17 @@
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>10</v>
@@ -7341,17 +7339,17 @@
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>10</v>
@@ -7361,17 +7359,17 @@
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
@@ -7381,17 +7379,17 @@
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>10</v>
@@ -7401,77 +7399,77 @@
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>114</v>
@@ -7481,17 +7479,17 @@
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -7501,17 +7499,17 @@
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>10</v>
@@ -7521,17 +7519,17 @@
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -7541,17 +7539,17 @@
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>44</v>
@@ -7561,14 +7559,14 @@
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -7599,10 +7597,10 @@
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -7612,17 +7610,17 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -7632,17 +7630,17 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
@@ -7652,17 +7650,17 @@
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>10</v>
@@ -7672,17 +7670,17 @@
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -7692,7 +7690,7 @@
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -7702,7 +7700,7 @@
         <v>13</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -7712,17 +7710,17 @@
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -7732,17 +7730,17 @@
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>44</v>
@@ -7752,17 +7750,17 @@
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>10</v>
@@ -7772,17 +7770,17 @@
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>44</v>
@@ -7792,14 +7790,14 @@
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -7830,10 +7828,10 @@
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>10</v>
@@ -7843,17 +7841,17 @@
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>10</v>
@@ -7863,7 +7861,7 @@
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="7"/>
@@ -7873,7 +7871,7 @@
         <v>13</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -7883,17 +7881,17 @@
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -7903,17 +7901,17 @@
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -7923,17 +7921,17 @@
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -7943,17 +7941,17 @@
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -7963,17 +7961,17 @@
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -7983,17 +7981,17 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>44</v>
@@ -8003,17 +8001,17 @@
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>10</v>
@@ -8023,14 +8021,14 @@
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -8061,10 +8059,10 @@
     </row>
     <row r="146" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>10</v>
@@ -8074,17 +8072,17 @@
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>10</v>
@@ -8094,17 +8092,17 @@
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G147" s="6"/>
       <c r="H147" s="7"/>
     </row>
     <row r="148" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>10</v>
@@ -8114,17 +8112,17 @@
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -8134,17 +8132,17 @@
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>10</v>
@@ -8154,17 +8152,17 @@
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>10</v>
@@ -8174,17 +8172,17 @@
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>10</v>
@@ -8194,17 +8192,17 @@
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>44</v>
@@ -8214,17 +8212,17 @@
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>44</v>
@@ -8234,17 +8232,17 @@
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>10</v>
@@ -8254,17 +8252,17 @@
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -8274,17 +8272,17 @@
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>44</v>
@@ -8294,17 +8292,17 @@
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
@@ -8314,17 +8312,17 @@
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>10</v>
@@ -8334,17 +8332,17 @@
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
     <row r="160" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>10</v>
@@ -8354,17 +8352,17 @@
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>44</v>
@@ -8374,17 +8372,17 @@
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>44</v>
@@ -8394,17 +8392,17 @@
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -8414,17 +8412,17 @@
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>10</v>
@@ -8434,17 +8432,17 @@
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>10</v>
@@ -8454,17 +8452,17 @@
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>10</v>
@@ -8474,17 +8472,17 @@
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>10</v>
@@ -8494,17 +8492,17 @@
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -8514,17 +8512,17 @@
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -8534,7 +8532,7 @@
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
@@ -8560,7 +8558,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -8594,7 +8592,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -8604,10 +8602,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>13</v>
@@ -8628,10 +8626,10 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>172</v>
@@ -8652,10 +8650,10 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -8674,10 +8672,10 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -8696,10 +8694,10 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -8718,13 +8716,13 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8742,10 +8740,10 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>182</v>
@@ -8766,10 +8764,10 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -8788,13 +8786,13 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8812,13 +8810,13 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -8836,13 +8834,13 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8850,7 +8848,7 @@
         <v>192</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
@@ -8860,10 +8858,10 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -8882,18 +8880,18 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>196</v>
@@ -8906,10 +8904,10 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -8928,10 +8926,10 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -8950,13 +8948,13 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="H18" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8974,10 +8972,10 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -8996,10 +8994,10 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -9018,10 +9016,10 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -9040,10 +9038,10 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -9052,7 +9050,7 @@
         <v>209</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>10</v>
@@ -9062,19 +9060,19 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -9084,19 +9082,19 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -9106,21 +9104,21 @@
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -9130,19 +9128,19 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -9152,16 +9150,16 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9195,7 +9193,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>10</v>
@@ -9205,10 +9203,10 @@
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>13</v>
@@ -9216,10 +9214,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -9229,21 +9227,21 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H44" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>10</v>
@@ -9253,45 +9251,45 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H45" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H46" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>10</v>
@@ -9301,21 +9299,21 @@
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -9325,21 +9323,21 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -9349,21 +9347,21 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>121</v>
@@ -9373,19 +9371,19 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>10</v>
@@ -9395,21 +9393,21 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H51" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>10</v>
@@ -9419,21 +9417,21 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H52" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>10</v>
@@ -9443,13 +9441,13 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9467,21 +9465,21 @@
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H54" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>10</v>
@@ -9491,21 +9489,21 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H55" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>10</v>
@@ -9515,19 +9513,19 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>479</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -9537,21 +9535,21 @@
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H57" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -9561,21 +9559,21 @@
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H58" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -9585,19 +9583,19 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -9607,19 +9605,19 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -9629,16 +9627,16 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H61" s="7"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9672,7 +9670,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -9682,10 +9680,10 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>13</v>
@@ -9693,10 +9691,10 @@
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>10</v>
@@ -9706,21 +9704,21 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H69" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -9730,19 +9728,19 @@
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -9752,19 +9750,19 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -9774,21 +9772,21 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H72" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -9798,21 +9796,21 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H73" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -9822,21 +9820,21 @@
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H74" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -9846,21 +9844,21 @@
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H75" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -9870,21 +9868,21 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H76" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>10</v>
@@ -9894,19 +9892,19 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>121</v>
@@ -9916,19 +9914,19 @@
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>121</v>
@@ -9938,16 +9936,16 @@
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H79" s="6"/>
     </row>
     <row r="82" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9981,7 +9979,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>10</v>
@@ -9991,10 +9989,10 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>13</v>
@@ -10002,10 +10000,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>10</v>
@@ -10015,21 +10013,21 @@
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H85" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>10</v>
@@ -10039,19 +10037,19 @@
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>10</v>
@@ -10061,21 +10059,21 @@
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H87" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
@@ -10085,21 +10083,21 @@
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H88" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
@@ -10109,19 +10107,19 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>10</v>
@@ -10131,21 +10129,21 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G90" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H90" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>20</v>
@@ -10155,18 +10153,18 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G91" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H91" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10200,7 +10198,7 @@
         <v>13</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>10</v>
@@ -10215,10 +10213,10 @@
     </row>
     <row r="98" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -10233,10 +10231,10 @@
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>10</v>
@@ -10251,10 +10249,10 @@
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>10</v>
@@ -10269,10 +10267,10 @@
     </row>
     <row r="101" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -10287,10 +10285,10 @@
     </row>
     <row r="102" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>542</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>10</v>
@@ -10305,10 +10303,10 @@
     </row>
     <row r="103" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -10320,15 +10318,15 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>10</v>
@@ -10343,10 +10341,10 @@
     </row>
     <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>20</v>
@@ -10361,7 +10359,7 @@
     </row>
     <row r="108" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10395,7 +10393,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>10</v>
@@ -10405,10 +10403,10 @@
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>13</v>
@@ -10429,19 +10427,19 @@
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>10</v>
@@ -10451,21 +10449,21 @@
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -10475,21 +10473,21 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -10499,21 +10497,21 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>558</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
@@ -10523,19 +10521,19 @@
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>10</v>
@@ -10545,21 +10543,21 @@
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -10569,19 +10567,19 @@
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -10591,19 +10589,19 @@
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>567</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -10613,19 +10611,19 @@
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>10</v>
@@ -10635,19 +10633,19 @@
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>10</v>
@@ -10657,16 +10655,16 @@
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H121" s="6"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10700,7 +10698,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>10</v>
@@ -10710,10 +10708,10 @@
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>13</v>
@@ -10721,10 +10719,10 @@
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>574</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>10</v>
@@ -10734,21 +10732,21 @@
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G128" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G128" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H128" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>577</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>10</v>
@@ -10758,21 +10756,21 @@
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G129" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H129" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>10</v>
@@ -10782,19 +10780,19 @@
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>581</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>582</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>10</v>
@@ -10804,21 +10802,21 @@
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G131" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H131" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -10828,19 +10826,19 @@
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -10850,21 +10848,21 @@
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G133" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H133" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>589</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -10874,19 +10872,19 @@
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -10896,21 +10894,21 @@
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G135" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G135" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="H135" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>593</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -10920,19 +10918,19 @@
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -10942,16 +10940,16 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H137" s="6"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10995,21 +10993,21 @@
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G145" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H145" s="22" t="s">
         <v>597</v>
-      </c>
-      <c r="H145" s="22" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>600</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>10</v>
@@ -11019,21 +11017,21 @@
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H146" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>10</v>
@@ -11048,10 +11046,10 @@
     </row>
     <row r="148" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>603</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>604</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>10</v>
@@ -11066,10 +11064,10 @@
     </row>
     <row r="149" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -11084,10 +11082,10 @@
     </row>
     <row r="150" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>10</v>
@@ -11102,10 +11100,10 @@
     </row>
     <row r="151" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>10</v>
@@ -11120,7 +11118,7 @@
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11154,7 +11152,7 @@
         <v>13</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>10</v>
@@ -11169,10 +11167,10 @@
     </row>
     <row r="158" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>121</v>
@@ -11187,10 +11185,10 @@
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>10</v>
@@ -11205,10 +11203,10 @@
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>121</v>
@@ -11223,7 +11221,7 @@
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11254,10 +11252,10 @@
     </row>
     <row r="166" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>620</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>10</v>
@@ -11267,19 +11265,19 @@
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>10</v>
@@ -11289,21 +11287,21 @@
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>625</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>626</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -11313,21 +11311,21 @@
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -11337,21 +11335,21 @@
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>10</v>
@@ -11361,21 +11359,21 @@
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>10</v>
@@ -11385,21 +11383,21 @@
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
@@ -11409,21 +11407,21 @@
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>10</v>
@@ -11433,21 +11431,21 @@
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>643</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>10</v>
@@ -11457,21 +11455,21 @@
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>10</v>
@@ -11481,21 +11479,21 @@
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>649</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>10</v>
@@ -11505,21 +11503,21 @@
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>10</v>
@@ -11529,45 +11527,45 @@
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>10</v>
@@ -11577,21 +11575,21 @@
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>10</v>
@@ -11601,21 +11599,21 @@
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>10</v>
@@ -11625,21 +11623,21 @@
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>10</v>
@@ -11649,37 +11647,37 @@
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>669</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11687,7 +11685,7 @@
         <v>13</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>10</v>
@@ -11697,10 +11695,10 @@
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>13</v>
@@ -11721,19 +11719,19 @@
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>121</v>
@@ -11743,19 +11741,19 @@
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>10</v>
@@ -11765,13 +11763,13 @@
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -11795,7 +11793,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -11819,7 +11817,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11850,10 +11848,10 @@
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>678</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -11863,17 +11861,17 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>680</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -11883,17 +11881,17 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>681</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>682</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -11903,17 +11901,17 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -11923,17 +11921,17 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>685</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -11943,7 +11941,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -11963,7 +11961,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -11983,19 +11981,19 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>688</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -12005,17 +12003,17 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>690</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>691</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -12025,17 +12023,17 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>693</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
@@ -12045,17 +12043,17 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>694</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>695</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
@@ -12065,17 +12063,17 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>696</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>697</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
@@ -12085,7 +12083,7 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -12105,17 +12103,17 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>699</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -12125,17 +12123,17 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>700</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>701</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -12145,17 +12143,17 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>702</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>703</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -12165,17 +12163,17 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>705</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -12185,17 +12183,17 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>706</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>707</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
@@ -12205,17 +12203,17 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>708</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>709</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
@@ -12225,17 +12223,17 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>710</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>711</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
@@ -12245,17 +12243,17 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>713</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>17</v>
@@ -12265,17 +12263,17 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>715</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -12285,17 +12283,17 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>716</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>717</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -12305,17 +12303,17 @@
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>718</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>719</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -12325,17 +12323,17 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>720</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>721</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -12345,7 +12343,7 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -12355,7 +12353,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
@@ -12365,17 +12363,17 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>10</v>
@@ -12385,17 +12383,17 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>723</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>724</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
@@ -12405,19 +12403,19 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>726</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>727</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>10</v>
@@ -12427,19 +12425,19 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>728</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>729</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
@@ -12449,17 +12447,17 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>730</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>731</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
@@ -12469,17 +12467,17 @@
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>732</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
@@ -12489,17 +12487,17 @@
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>735</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>10</v>
@@ -12509,17 +12507,17 @@
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>736</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>737</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>10</v>
@@ -12529,14 +12527,14 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -12567,10 +12565,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>740</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>10</v>
@@ -12580,17 +12578,17 @@
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -12600,17 +12598,17 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>744</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>10</v>
@@ -12620,17 +12618,17 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>745</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>746</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>10</v>
@@ -12640,17 +12638,17 @@
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>10</v>
@@ -12660,19 +12658,19 @@
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>747</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>748</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -12682,19 +12680,19 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>726</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>727</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -12704,19 +12702,19 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>749</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>750</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>10</v>
@@ -12726,14 +12724,14 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -12764,10 +12762,10 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>678</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -12777,17 +12775,17 @@
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -12797,17 +12795,17 @@
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>718</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>719</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -12817,17 +12815,17 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>753</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>754</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -12837,37 +12835,37 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>755</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>756</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>758</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>759</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -12877,17 +12875,17 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>760</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>761</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -12897,17 +12895,17 @@
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>763</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -12917,17 +12915,17 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>764</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>765</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -12937,17 +12935,17 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>10</v>
@@ -12957,17 +12955,17 @@
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -12977,17 +12975,17 @@
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>767</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>768</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -12997,17 +12995,17 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>44</v>
@@ -13017,27 +13015,27 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>770</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>771</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -13063,7 +13061,7 @@
   <sheetData>
     <row r="1" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -13097,7 +13095,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>10</v>
@@ -13107,17 +13105,17 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="5:12" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
@@ -13127,19 +13125,19 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>20</v>
@@ -13149,19 +13147,19 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>776</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>777</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -13171,17 +13169,17 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>778</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>779</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -13191,17 +13189,17 @@
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>780</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>781</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>10</v>
@@ -13211,41 +13209,41 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>783</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>784</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>786</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>787</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
@@ -13255,19 +13253,19 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="11" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>789</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>790</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
@@ -13277,19 +13275,19 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>792</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
@@ -13299,17 +13297,17 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>793</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>794</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>10</v>
@@ -13319,16 +13317,16 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L13" s="6"/>
     </row>
     <row r="17" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -13362,7 +13360,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>10</v>
@@ -13372,7 +13370,7 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
@@ -13392,17 +13390,17 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>797</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>798</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>10</v>
@@ -13412,17 +13410,17 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>800</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>10</v>
@@ -13432,19 +13430,19 @@
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>802</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>803</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>10</v>
@@ -13454,19 +13452,19 @@
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>805</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>806</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>10</v>
@@ -13476,19 +13474,19 @@
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>808</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>809</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>10</v>
@@ -13498,39 +13496,39 @@
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>810</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>811</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>813</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>10</v>
@@ -13540,17 +13538,17 @@
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>815</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>10</v>
@@ -13560,19 +13558,19 @@
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>817</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>818</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>10</v>
@@ -13582,17 +13580,17 @@
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="5:12" ht="59.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>819</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>820</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>10</v>
@@ -13602,19 +13600,19 @@
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="5:12" ht="75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>10</v>
@@ -13624,19 +13622,19 @@
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="32" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>825</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>826</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>10</v>
@@ -13646,19 +13644,19 @@
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="33" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>828</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>10</v>
@@ -13668,17 +13666,17 @@
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>830</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>10</v>
@@ -13688,14 +13686,14 @@
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
     <row r="38" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="39" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -13729,7 +13727,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>10</v>
@@ -13739,7 +13737,7 @@
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="7"/>
@@ -13759,39 +13757,39 @@
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>832</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>833</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>835</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>10</v>
@@ -13801,17 +13799,17 @@
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
     <row r="44" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>836</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>837</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
@@ -13821,19 +13819,19 @@
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="45" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>838</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>839</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>10</v>
@@ -13843,17 +13841,17 @@
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
     <row r="46" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>840</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>841</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>10</v>
@@ -13863,17 +13861,17 @@
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
     <row r="47" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>842</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>843</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>10</v>
@@ -13883,17 +13881,17 @@
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>844</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>845</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>10</v>
@@ -13903,17 +13901,17 @@
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>846</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>847</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>10</v>
@@ -13923,19 +13921,19 @@
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="50" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>849</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>10</v>
@@ -13945,17 +13943,17 @@
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
     <row r="51" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>850</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>851</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>10</v>
@@ -13965,19 +13963,19 @@
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="52" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>852</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>853</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>10</v>
@@ -13987,17 +13985,17 @@
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
     <row r="53" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>854</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>855</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>10</v>
@@ -14007,19 +14005,19 @@
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="54" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>857</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>10</v>
@@ -14029,19 +14027,19 @@
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="55" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>858</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>859</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>10</v>
@@ -14051,14 +14049,14 @@
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
     <row r="60" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="61" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -14092,7 +14090,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>10</v>
@@ -14102,17 +14100,17 @@
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="5:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E63" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>10</v>
@@ -14122,11 +14120,11 @@
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="64" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -14144,7 +14142,7 @@
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="7"/>
@@ -14164,7 +14162,7 @@
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -14184,7 +14182,7 @@
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -14204,10 +14202,10 @@
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L67" s="6"/>
     </row>
@@ -14226,11 +14224,11 @@
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -14238,7 +14236,7 @@
         <v>190</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>10</v>
@@ -14248,19 +14246,19 @@
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>864</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>865</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>10</v>
@@ -14270,17 +14268,17 @@
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
     </row>
     <row r="71" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>17</v>
@@ -14290,17 +14288,17 @@
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>868</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>869</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>10</v>
@@ -14310,17 +14308,17 @@
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
     <row r="73" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>870</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>871</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>10</v>
@@ -14330,17 +14328,17 @@
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
     </row>
     <row r="74" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>872</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>873</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>10</v>
@@ -14350,17 +14348,17 @@
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
     <row r="75" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E75" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>10</v>
@@ -14370,17 +14368,17 @@
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
     </row>
     <row r="76" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>875</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>876</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>10</v>
@@ -14390,17 +14388,17 @@
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
     <row r="77" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>877</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>10</v>
@@ -14410,17 +14408,17 @@
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
     <row r="78" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>10</v>
@@ -14430,17 +14428,17 @@
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
     <row r="79" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>881</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>882</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>10</v>
@@ -14450,19 +14448,19 @@
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" spans="5:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>883</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>884</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>10</v>
@@ -14472,19 +14470,19 @@
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="81" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E81" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>886</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>887</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>10</v>
@@ -14494,17 +14492,17 @@
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
     <row r="82" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E82" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>10</v>
@@ -14514,17 +14512,17 @@
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
     <row r="83" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E83" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>10</v>
@@ -14534,17 +14532,17 @@
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
     <row r="84" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E84" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>10</v>
@@ -14554,17 +14552,17 @@
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
     <row r="85" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E85" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>10</v>
@@ -14574,17 +14572,17 @@
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
     <row r="86" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>889</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>890</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>10</v>
@@ -14594,17 +14592,17 @@
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
     </row>
     <row r="87" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>891</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>892</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>10</v>
@@ -14614,19 +14612,19 @@
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L87" s="6"/>
     </row>
     <row r="88" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E88" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>894</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>895</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>10</v>
@@ -14636,17 +14634,17 @@
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
     </row>
     <row r="89" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>896</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>897</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>10</v>
@@ -14656,17 +14654,17 @@
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
     </row>
     <row r="90" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>898</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>899</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>10</v>
@@ -14676,17 +14674,17 @@
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
     </row>
     <row r="91" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>900</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>901</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>10</v>
@@ -14696,17 +14694,17 @@
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
     <row r="92" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>903</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>10</v>
@@ -14716,7 +14714,7 @@
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>

--- a/重庆二师_Dev/doc/ods-fdm.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="图书（3）" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="941">
   <si>
     <t>字段名</t>
   </si>
@@ -1364,15 +1364,9 @@
     <t>SKBJH</t>
   </si>
   <si>
-    <t>上课班级号</t>
-  </si>
-  <si>
     <t>JXBMC</t>
   </si>
   <si>
-    <t>教学班级名称</t>
-  </si>
-  <si>
     <t>JXTZ</t>
   </si>
   <si>
@@ -1383,10 +1377,6 @@
   </si>
   <si>
     <t>开课说明</t>
-  </si>
-  <si>
-    <t>排课信息表(edu_fdm_kc_pk)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ZFSOFT_XG</t>
@@ -3367,6 +3357,50 @@
   </si>
   <si>
     <t>edu_fdm_jzg)教职工基本信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KCDMB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESFXY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSXXB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSXKBN  ? XSXKB_TRIGGER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSPFTJB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排课信息表(edu_fdm_kc_pk)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学班级名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课班级号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJB ? CJB_TRIGGER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdlisnet</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4008,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4180,7 +4214,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>940</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>51</v>
@@ -4824,7 +4858,7 @@
         <v>90</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5010,7 +5044,7 @@
         <v>90</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5110,7 +5144,7 @@
         <v>122</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -5134,7 +5168,7 @@
         <v>123</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -5156,7 +5190,7 @@
         <v>124</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -5180,7 +5214,7 @@
         <v>126</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -5202,7 +5236,7 @@
         <v>127</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>44</v>
@@ -5224,7 +5258,7 @@
         <v>128</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -5248,7 +5282,7 @@
         <v>129</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -5270,7 +5304,7 @@
         <v>86</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>10</v>
@@ -5294,7 +5328,7 @@
         <v>131</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -5316,7 +5350,7 @@
         <v>132</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -5340,7 +5374,7 @@
         <v>133</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>121</v>
@@ -5362,7 +5396,7 @@
         <v>134</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -5386,7 +5420,7 @@
         <v>135</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -5410,7 +5444,7 @@
         <v>136</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -5432,7 +5466,7 @@
         <v>137</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -5454,7 +5488,7 @@
         <v>138</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -5476,7 +5510,7 @@
         <v>139</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -5500,7 +5534,7 @@
         <v>140</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>44</v>
@@ -5524,7 +5558,7 @@
         <v>141</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>44</v>
@@ -5548,7 +5582,7 @@
         <v>142</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>44</v>
@@ -5572,7 +5606,7 @@
         <v>143</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>44</v>
@@ -5596,7 +5630,7 @@
         <v>144</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>44</v>
@@ -5620,7 +5654,7 @@
         <v>145</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>44</v>
@@ -5644,7 +5678,7 @@
         <v>146</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>44</v>
@@ -5668,7 +5702,7 @@
         <v>147</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>44</v>
@@ -5692,7 +5726,7 @@
         <v>148</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>44</v>
@@ -5746,16 +5780,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -5798,8 +5835,12 @@
         <v>100</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>932</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -6568,9 +6609,11 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G51" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>930</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -6587,9 +6630,7 @@
         <v>256</v>
       </c>
       <c r="E52" s="6"/>
-      <c r="F52" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
     </row>
@@ -6607,9 +6648,7 @@
         <v>256</v>
       </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="7"/>
     </row>
@@ -6627,9 +6666,7 @@
         <v>260</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
@@ -6647,9 +6684,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
@@ -6667,9 +6702,7 @@
         <v>265</v>
       </c>
       <c r="E56" s="6"/>
-      <c r="F56" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
@@ -6687,9 +6720,7 @@
         <v>265</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
@@ -6707,9 +6738,7 @@
         <v>265</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
@@ -6727,9 +6756,7 @@
         <v>4000</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
@@ -6747,9 +6774,7 @@
         <v>1000</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
@@ -6767,9 +6792,7 @@
         <v>1000</v>
       </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
@@ -6787,9 +6810,7 @@
         <v>30</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
@@ -6807,9 +6828,7 @@
         <v>30</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
@@ -6827,9 +6846,7 @@
         <v>265</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
@@ -6847,9 +6864,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
@@ -6884,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>285</v>
       </c>
@@ -6899,9 +6914,11 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G71" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>938</v>
+      </c>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -6918,9 +6935,7 @@
         <v>64</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="7"/>
     </row>
@@ -6938,9 +6953,7 @@
         <v>8</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="7"/>
     </row>
@@ -6958,9 +6971,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="6"/>
-      <c r="F74" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
@@ -6978,9 +6989,7 @@
         <v>256</v>
       </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
@@ -6998,9 +7007,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="6"/>
-      <c r="F76" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
@@ -7018,9 +7025,7 @@
         <v>64</v>
       </c>
       <c r="E77" s="6"/>
-      <c r="F77" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
@@ -7038,9 +7043,7 @@
         <v>64</v>
       </c>
       <c r="E78" s="6"/>
-      <c r="F78" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
@@ -7058,9 +7061,7 @@
         <v>64</v>
       </c>
       <c r="E79" s="6"/>
-      <c r="F79" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
@@ -7078,9 +7079,7 @@
         <v>302</v>
       </c>
       <c r="E80" s="6"/>
-      <c r="F80" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
@@ -7098,9 +7097,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="6"/>
-      <c r="F81" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
@@ -7118,9 +7115,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
@@ -7138,9 +7133,7 @@
         <v>265</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
@@ -7158,9 +7151,7 @@
         <v>265</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
@@ -7178,9 +7169,7 @@
         <v>20</v>
       </c>
       <c r="E85" s="6"/>
-      <c r="F85" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
@@ -7198,9 +7187,7 @@
         <v>100</v>
       </c>
       <c r="E86" s="6"/>
-      <c r="F86" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
@@ -7218,9 +7205,7 @@
         <v>100</v>
       </c>
       <c r="E87" s="6"/>
-      <c r="F87" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
@@ -7238,9 +7223,7 @@
         <v>20</v>
       </c>
       <c r="E88" s="6"/>
-      <c r="F88" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
@@ -7258,9 +7241,7 @@
         <v>100</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
@@ -7278,9 +7259,7 @@
         <v>100</v>
       </c>
       <c r="E90" s="6"/>
-      <c r="F90" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
@@ -7298,9 +7277,7 @@
         <v>100</v>
       </c>
       <c r="E91" s="6"/>
-      <c r="F91" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
@@ -7318,9 +7295,7 @@
         <v>60</v>
       </c>
       <c r="E92" s="6"/>
-      <c r="F92" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
@@ -7338,9 +7313,7 @@
         <v>50</v>
       </c>
       <c r="E93" s="6"/>
-      <c r="F93" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
@@ -7358,9 +7331,7 @@
         <v>20</v>
       </c>
       <c r="E94" s="6"/>
-      <c r="F94" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
@@ -7378,9 +7349,7 @@
         <v>20</v>
       </c>
       <c r="E95" s="6"/>
-      <c r="F95" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
@@ -7398,9 +7367,7 @@
         <v>20</v>
       </c>
       <c r="E96" s="6"/>
-      <c r="F96" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
@@ -7418,9 +7385,7 @@
         <v>260</v>
       </c>
       <c r="E97" s="6"/>
-      <c r="F97" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
@@ -7438,9 +7403,7 @@
         <v>260</v>
       </c>
       <c r="E98" s="6"/>
-      <c r="F98" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
@@ -7458,9 +7421,7 @@
         <v>260</v>
       </c>
       <c r="E99" s="6"/>
-      <c r="F99" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
@@ -7478,9 +7439,7 @@
         <v>115</v>
       </c>
       <c r="E100" s="6"/>
-      <c r="F100" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
@@ -7498,9 +7457,7 @@
         <v>20</v>
       </c>
       <c r="E101" s="6"/>
-      <c r="F101" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
@@ -7518,9 +7475,7 @@
         <v>20</v>
       </c>
       <c r="E102" s="6"/>
-      <c r="F102" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
@@ -7538,9 +7493,7 @@
         <v>20</v>
       </c>
       <c r="E103" s="6"/>
-      <c r="F103" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
@@ -7558,9 +7511,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="6"/>
-      <c r="F104" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
@@ -7595,7 +7546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>349</v>
       </c>
@@ -7610,9 +7561,11 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G113" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>933</v>
+      </c>
       <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -7841,9 +7794,11 @@
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G130" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>934</v>
+      </c>
       <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -7860,9 +7815,7 @@
         <v>256</v>
       </c>
       <c r="E131" s="6"/>
-      <c r="F131" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="7"/>
     </row>
@@ -7880,9 +7833,7 @@
         <v>20</v>
       </c>
       <c r="E132" s="6"/>
-      <c r="F132" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="7"/>
     </row>
@@ -7900,9 +7851,7 @@
         <v>30</v>
       </c>
       <c r="E133" s="6"/>
-      <c r="F133" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
@@ -7920,9 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="6"/>
-      <c r="F134" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
@@ -7940,9 +7887,7 @@
         <v>20</v>
       </c>
       <c r="E135" s="6"/>
-      <c r="F135" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
@@ -7960,9 +7905,7 @@
         <v>20</v>
       </c>
       <c r="E136" s="6"/>
-      <c r="F136" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
@@ -7980,9 +7923,7 @@
         <v>20</v>
       </c>
       <c r="E137" s="6"/>
-      <c r="F137" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
@@ -8000,9 +7941,7 @@
         <v>11</v>
       </c>
       <c r="E138" s="6"/>
-      <c r="F138" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
@@ -8020,15 +7959,13 @@
         <v>100</v>
       </c>
       <c r="E139" s="6"/>
-      <c r="F139" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>935</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -8072,9 +8009,11 @@
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G146" s="6"/>
+        <v>939</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>939</v>
+      </c>
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8091,9 +8030,7 @@
         <v>30</v>
       </c>
       <c r="E147" s="6"/>
-      <c r="F147" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="7"/>
     </row>
@@ -8111,9 +8048,7 @@
         <v>30</v>
       </c>
       <c r="E148" s="6"/>
-      <c r="F148" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="7"/>
     </row>
@@ -8131,9 +8066,7 @@
         <v>64</v>
       </c>
       <c r="E149" s="6"/>
-      <c r="F149" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
@@ -8151,9 +8084,7 @@
         <v>20</v>
       </c>
       <c r="E150" s="6"/>
-      <c r="F150" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
@@ -8171,9 +8102,7 @@
         <v>300</v>
       </c>
       <c r="E151" s="6"/>
-      <c r="F151" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
@@ -8191,9 +8120,7 @@
         <v>500</v>
       </c>
       <c r="E152" s="6"/>
-      <c r="F152" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
@@ -8211,9 +8138,7 @@
         <v>4</v>
       </c>
       <c r="E153" s="6"/>
-      <c r="F153" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
@@ -8231,9 +8156,7 @@
         <v>64</v>
       </c>
       <c r="E154" s="6"/>
-      <c r="F154" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
@@ -8251,9 +8174,7 @@
         <v>10</v>
       </c>
       <c r="E155" s="6"/>
-      <c r="F155" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
@@ -8271,9 +8192,7 @@
         <v>10</v>
       </c>
       <c r="E156" s="6"/>
-      <c r="F156" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
@@ -8291,9 +8210,7 @@
         <v>64</v>
       </c>
       <c r="E157" s="6"/>
-      <c r="F157" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
@@ -8311,9 +8228,7 @@
         <v>50</v>
       </c>
       <c r="E158" s="6"/>
-      <c r="F158" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
@@ -8331,9 +8246,7 @@
         <v>1000</v>
       </c>
       <c r="E159" s="6"/>
-      <c r="F159" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
@@ -8351,9 +8264,7 @@
         <v>64</v>
       </c>
       <c r="E160" s="6"/>
-      <c r="F160" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
@@ -8371,9 +8282,7 @@
         <v>2</v>
       </c>
       <c r="E161" s="6"/>
-      <c r="F161" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
@@ -8391,9 +8300,7 @@
         <v>2</v>
       </c>
       <c r="E162" s="6"/>
-      <c r="F162" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
@@ -8411,9 +8318,7 @@
         <v>100</v>
       </c>
       <c r="E163" s="6"/>
-      <c r="F163" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
@@ -8431,9 +8336,7 @@
         <v>50</v>
       </c>
       <c r="E164" s="6"/>
-      <c r="F164" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
@@ -8451,9 +8354,7 @@
         <v>64</v>
       </c>
       <c r="E165" s="6"/>
-      <c r="F165" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
@@ -8462,7 +8363,7 @@
         <v>412</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>413</v>
+        <v>937</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>10</v>
@@ -8471,18 +8372,16 @@
         <v>50</v>
       </c>
       <c r="E166" s="6"/>
-      <c r="F166" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>415</v>
+        <v>936</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>10</v>
@@ -8491,18 +8390,16 @@
         <v>100</v>
       </c>
       <c r="E167" s="6"/>
-      <c r="F167" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -8511,18 +8408,16 @@
         <v>1000</v>
       </c>
       <c r="E168" s="6"/>
-      <c r="F168" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -8531,9 +8426,7 @@
         <v>1000</v>
       </c>
       <c r="E169" s="6"/>
-      <c r="F169" s="6" t="s">
-        <v>256</v>
-      </c>
+      <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
@@ -8547,7 +8440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
@@ -8558,7 +8451,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -8602,10 +8495,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>13</v>
@@ -8626,10 +8519,10 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>172</v>
@@ -8650,10 +8543,10 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -8672,10 +8565,10 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -8694,10 +8587,10 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -8716,13 +8609,13 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8740,10 +8633,10 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>182</v>
@@ -8764,10 +8657,10 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -8786,13 +8679,13 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8810,13 +8703,13 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -8834,13 +8727,13 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8848,7 +8741,7 @@
         <v>192</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
@@ -8858,10 +8751,10 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -8880,18 +8773,18 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>196</v>
@@ -8904,10 +8797,10 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -8926,10 +8819,10 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -8948,13 +8841,13 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8972,10 +8865,10 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -8994,10 +8887,10 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -9016,10 +8909,10 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -9038,10 +8931,10 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -9050,7 +8943,7 @@
         <v>209</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>10</v>
@@ -9060,19 +8953,19 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -9082,19 +8975,19 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -9104,21 +8997,21 @@
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -9128,19 +9021,19 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -9150,16 +9043,16 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9203,10 +9096,10 @@
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>13</v>
@@ -9214,10 +9107,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -9227,21 +9120,21 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G44" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>10</v>
@@ -9251,42 +9144,42 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>330</v>
@@ -9299,21 +9192,21 @@
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -9323,21 +9216,21 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -9347,21 +9240,21 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>121</v>
@@ -9371,19 +9264,19 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>10</v>
@@ -9393,21 +9286,21 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>10</v>
@@ -9417,21 +9310,21 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>10</v>
@@ -9441,13 +9334,13 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9465,21 +9358,21 @@
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>10</v>
@@ -9489,21 +9382,21 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>10</v>
@@ -9513,19 +9406,19 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -9535,21 +9428,21 @@
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -9559,21 +9452,21 @@
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -9583,19 +9476,19 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -9605,19 +9498,19 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -9627,16 +9520,16 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H61" s="7"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9680,10 +9573,10 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>13</v>
@@ -9691,10 +9584,10 @@
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>10</v>
@@ -9704,21 +9597,21 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -9728,19 +9621,19 @@
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -9750,19 +9643,19 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -9772,21 +9665,21 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -9796,21 +9689,21 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -9820,21 +9713,21 @@
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -9844,21 +9737,21 @@
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -9868,21 +9761,21 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>10</v>
@@ -9892,19 +9785,19 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>121</v>
@@ -9914,19 +9807,19 @@
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>121</v>
@@ -9936,16 +9829,16 @@
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H79" s="6"/>
     </row>
     <row r="82" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9989,10 +9882,10 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>13</v>
@@ -10000,10 +9893,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>10</v>
@@ -10013,21 +9906,21 @@
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>10</v>
@@ -10037,19 +9930,19 @@
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>10</v>
@@ -10059,21 +9952,21 @@
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
@@ -10083,21 +9976,21 @@
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
@@ -10107,19 +10000,19 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>10</v>
@@ -10129,21 +10022,21 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>20</v>
@@ -10153,18 +10046,18 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10213,10 +10106,10 @@
     </row>
     <row r="98" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -10231,10 +10124,10 @@
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>10</v>
@@ -10249,10 +10142,10 @@
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>10</v>
@@ -10267,10 +10160,10 @@
     </row>
     <row r="101" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -10285,10 +10178,10 @@
     </row>
     <row r="102" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>10</v>
@@ -10303,10 +10196,10 @@
     </row>
     <row r="103" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -10318,7 +10211,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -10359,7 +10252,7 @@
     </row>
     <row r="108" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10403,10 +10296,10 @@
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>13</v>
@@ -10427,19 +10320,19 @@
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>10</v>
@@ -10449,21 +10342,21 @@
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G112" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -10473,21 +10366,21 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -10497,21 +10390,21 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
@@ -10521,19 +10414,19 @@
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>10</v>
@@ -10543,21 +10436,21 @@
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -10567,19 +10460,19 @@
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -10589,19 +10482,19 @@
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -10611,19 +10504,19 @@
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>10</v>
@@ -10633,19 +10526,19 @@
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>10</v>
@@ -10655,16 +10548,16 @@
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H121" s="6"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10708,10 +10601,10 @@
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>13</v>
@@ -10719,10 +10612,10 @@
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>10</v>
@@ -10732,21 +10625,21 @@
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>10</v>
@@ -10756,21 +10649,21 @@
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>10</v>
@@ -10780,19 +10673,19 @@
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>10</v>
@@ -10802,21 +10695,21 @@
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -10826,19 +10719,19 @@
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -10848,21 +10741,21 @@
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -10872,19 +10765,19 @@
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -10894,21 +10787,21 @@
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -10918,19 +10811,19 @@
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -10940,16 +10833,16 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H137" s="6"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10993,21 +10886,21 @@
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>10</v>
@@ -11017,21 +10910,21 @@
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H146" s="22" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>10</v>
@@ -11046,10 +10939,10 @@
     </row>
     <row r="148" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>10</v>
@@ -11064,10 +10957,10 @@
     </row>
     <row r="149" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -11082,10 +10975,10 @@
     </row>
     <row r="150" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>10</v>
@@ -11100,10 +10993,10 @@
     </row>
     <row r="151" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>10</v>
@@ -11118,7 +11011,7 @@
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11167,10 +11060,10 @@
     </row>
     <row r="158" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>121</v>
@@ -11185,10 +11078,10 @@
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>10</v>
@@ -11203,10 +11096,10 @@
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>121</v>
@@ -11221,7 +11114,7 @@
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11252,10 +11145,10 @@
     </row>
     <row r="166" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>10</v>
@@ -11265,19 +11158,19 @@
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>10</v>
@@ -11287,21 +11180,21 @@
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G167" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="H167" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -11311,21 +11204,21 @@
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -11335,21 +11228,21 @@
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>10</v>
@@ -11359,21 +11252,21 @@
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>10</v>
@@ -11383,21 +11276,21 @@
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
@@ -11407,21 +11300,21 @@
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>10</v>
@@ -11431,21 +11324,21 @@
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>10</v>
@@ -11455,21 +11348,21 @@
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>10</v>
@@ -11479,21 +11372,21 @@
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>10</v>
@@ -11503,21 +11396,21 @@
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>10</v>
@@ -11527,45 +11420,45 @@
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>10</v>
@@ -11575,21 +11468,21 @@
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>10</v>
@@ -11599,21 +11492,21 @@
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>10</v>
@@ -11623,21 +11516,21 @@
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>10</v>
@@ -11647,37 +11540,37 @@
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11695,10 +11588,10 @@
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>13</v>
@@ -11719,19 +11612,19 @@
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>121</v>
@@ -11741,19 +11634,19 @@
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>10</v>
@@ -11763,13 +11656,13 @@
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -11793,7 +11686,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -11817,7 +11710,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11848,10 +11741,10 @@
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -11868,10 +11761,10 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -11888,10 +11781,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -11908,10 +11801,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -11928,10 +11821,10 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -11984,16 +11877,16 @@
         <v>256</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -12010,10 +11903,10 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -12030,10 +11923,10 @@
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
@@ -12050,10 +11943,10 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
@@ -12070,10 +11963,10 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
@@ -12110,10 +12003,10 @@
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -12130,10 +12023,10 @@
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -12150,10 +12043,10 @@
     </row>
     <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -12170,10 +12063,10 @@
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -12190,10 +12083,10 @@
     </row>
     <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
@@ -12210,10 +12103,10 @@
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
@@ -12230,10 +12123,10 @@
     </row>
     <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
@@ -12250,10 +12143,10 @@
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>17</v>
@@ -12270,10 +12163,10 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -12290,10 +12183,10 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -12310,10 +12203,10 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -12330,10 +12223,10 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -12353,7 +12246,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
@@ -12370,10 +12263,10 @@
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>10</v>
@@ -12390,10 +12283,10 @@
     </row>
     <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
@@ -12407,15 +12300,15 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>10</v>
@@ -12429,15 +12322,15 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
@@ -12454,10 +12347,10 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
@@ -12474,10 +12367,10 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
@@ -12494,10 +12387,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>10</v>
@@ -12514,10 +12407,10 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>10</v>
@@ -12534,7 +12427,7 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -12565,10 +12458,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>10</v>
@@ -12585,10 +12478,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -12605,10 +12498,10 @@
     </row>
     <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>10</v>
@@ -12625,10 +12518,10 @@
     </row>
     <row r="46" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>10</v>
@@ -12645,10 +12538,10 @@
     </row>
     <row r="47" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>10</v>
@@ -12662,15 +12555,15 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -12684,15 +12577,15 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -12706,15 +12599,15 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>10</v>
@@ -12731,7 +12624,7 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -12762,10 +12655,10 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -12782,10 +12675,10 @@
     </row>
     <row r="58" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -12802,10 +12695,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -12822,10 +12715,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -12842,16 +12735,16 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -12862,10 +12755,10 @@
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -12882,10 +12775,10 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -12902,10 +12795,10 @@
     </row>
     <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -12922,10 +12815,10 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -12942,10 +12835,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>10</v>
@@ -12962,10 +12855,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -12982,10 +12875,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -13002,10 +12895,10 @@
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>44</v>
@@ -13022,16 +12915,16 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
@@ -13061,7 +12954,7 @@
   <sheetData>
     <row r="1" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -13129,7 +13022,7 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="8" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -13150,16 +13043,16 @@
         <v>256</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -13176,10 +13069,10 @@
     </row>
     <row r="7" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -13196,10 +13089,10 @@
     </row>
     <row r="8" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>10</v>
@@ -13212,22 +13105,22 @@
         <v>251</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
@@ -13235,15 +13128,15 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
@@ -13257,15 +13150,15 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
@@ -13279,15 +13172,15 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
@@ -13304,10 +13197,10 @@
     </row>
     <row r="13" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>10</v>
@@ -13320,13 +13213,13 @@
         <v>256</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="L13" s="6"/>
     </row>
     <row r="17" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -13397,10 +13290,10 @@
     </row>
     <row r="21" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>10</v>
@@ -13417,10 +13310,10 @@
     </row>
     <row r="22" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>10</v>
@@ -13433,16 +13326,16 @@
         <v>256</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>10</v>
@@ -13455,16 +13348,16 @@
         <v>256</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>10</v>
@@ -13477,16 +13370,16 @@
         <v>256</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>10</v>
@@ -13500,21 +13393,21 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
@@ -13525,10 +13418,10 @@
     </row>
     <row r="27" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>10</v>
@@ -13545,10 +13438,10 @@
     </row>
     <row r="28" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>10</v>
@@ -13562,15 +13455,15 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>10</v>
@@ -13587,10 +13480,10 @@
     </row>
     <row r="30" spans="5:12" ht="59.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>10</v>
@@ -13604,15 +13497,15 @@
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="5:12" ht="75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>10</v>
@@ -13626,15 +13519,15 @@
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="32" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>10</v>
@@ -13648,15 +13541,15 @@
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>10</v>
@@ -13673,10 +13566,10 @@
     </row>
     <row r="34" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>10</v>
@@ -13693,7 +13586,7 @@
     </row>
     <row r="38" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="39" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -13764,16 +13657,16 @@
     </row>
     <row r="42" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
@@ -13781,15 +13674,15 @@
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="8" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="43" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>10</v>
@@ -13806,10 +13699,10 @@
     </row>
     <row r="44" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
@@ -13823,15 +13716,15 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>10</v>
@@ -13848,10 +13741,10 @@
     </row>
     <row r="46" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>10</v>
@@ -13868,10 +13761,10 @@
     </row>
     <row r="47" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>10</v>
@@ -13888,10 +13781,10 @@
     </row>
     <row r="48" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>10</v>
@@ -13908,10 +13801,10 @@
     </row>
     <row r="49" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>10</v>
@@ -13925,15 +13818,15 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>10</v>
@@ -13950,10 +13843,10 @@
     </row>
     <row r="51" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>10</v>
@@ -13967,15 +13860,15 @@
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="52" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>10</v>
@@ -13992,10 +13885,10 @@
     </row>
     <row r="53" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>10</v>
@@ -14009,15 +13902,15 @@
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="54" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>10</v>
@@ -14031,15 +13924,15 @@
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>10</v>
@@ -14056,7 +13949,7 @@
     </row>
     <row r="60" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -14090,7 +13983,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>10</v>
@@ -14124,7 +14017,7 @@
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="64" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -14205,7 +14098,7 @@
         <v>256</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="L67" s="6"/>
     </row>
@@ -14228,7 +14121,7 @@
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -14236,7 +14129,7 @@
         <v>190</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>10</v>
@@ -14249,16 +14142,16 @@
         <v>256</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>10</v>
@@ -14275,10 +14168,10 @@
     </row>
     <row r="71" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>17</v>
@@ -14295,10 +14188,10 @@
     </row>
     <row r="72" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72" s="4" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>10</v>
@@ -14315,10 +14208,10 @@
     </row>
     <row r="73" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>10</v>
@@ -14335,10 +14228,10 @@
     </row>
     <row r="74" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>10</v>
@@ -14355,10 +14248,10 @@
     </row>
     <row r="75" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E75" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>10</v>
@@ -14375,10 +14268,10 @@
     </row>
     <row r="76" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>10</v>
@@ -14395,10 +14288,10 @@
     </row>
     <row r="77" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>10</v>
@@ -14415,10 +14308,10 @@
     </row>
     <row r="78" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>10</v>
@@ -14435,10 +14328,10 @@
     </row>
     <row r="79" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>10</v>
@@ -14452,15 +14345,15 @@
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="80" spans="5:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>10</v>
@@ -14474,15 +14367,15 @@
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="81" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E81" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>10</v>
@@ -14499,10 +14392,10 @@
     </row>
     <row r="82" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E82" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>10</v>
@@ -14519,10 +14412,10 @@
     </row>
     <row r="83" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E83" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>10</v>
@@ -14539,10 +14432,10 @@
     </row>
     <row r="84" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E84" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>10</v>
@@ -14559,10 +14452,10 @@
     </row>
     <row r="85" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E85" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>10</v>
@@ -14579,10 +14472,10 @@
     </row>
     <row r="86" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>10</v>
@@ -14599,10 +14492,10 @@
     </row>
     <row r="87" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>10</v>
@@ -14615,16 +14508,16 @@
         <v>251</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="L87" s="6"/>
     </row>
     <row r="88" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E88" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>10</v>
@@ -14641,10 +14534,10 @@
     </row>
     <row r="89" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>10</v>
@@ -14661,10 +14554,10 @@
     </row>
     <row r="90" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>10</v>
@@ -14681,10 +14574,10 @@
     </row>
     <row r="91" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>10</v>
@@ -14701,10 +14594,10 @@
     </row>
     <row r="92" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>10</v>

--- a/重庆二师_Dev/doc/ods-fdm.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="图书（3）" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="964">
   <si>
     <t>字段名</t>
   </si>
@@ -3847,6 +3847,10 @@
       </rPr>
       <t>（累计外借次数）</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认情况</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3995,7 +3999,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4024,8 +4028,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4100,6 +4110,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4113,7 +4132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -4177,6 +4196,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4488,7 +4510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -6224,24 +6246,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6266,8 +6289,11 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="23" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>138</v>
       </c>
@@ -6281,15 +6307,15 @@
         <v>100</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>897</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>140</v>
       </c>
@@ -6307,7 +6333,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>142</v>
       </c>
@@ -6325,7 +6351,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>144</v>
       </c>
@@ -6343,7 +6369,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>146</v>
       </c>
@@ -6361,7 +6387,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>148</v>
       </c>
@@ -6379,7 +6405,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>150</v>
       </c>
@@ -6397,7 +6423,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>152</v>
       </c>
@@ -6415,7 +6441,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>154</v>
       </c>
@@ -6433,7 +6459,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>156</v>
       </c>
@@ -6451,7 +6477,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>158</v>
       </c>
@@ -6469,7 +6495,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>160</v>
       </c>
@@ -6487,7 +6513,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>162</v>
       </c>
@@ -6505,7 +6531,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>

--- a/重庆二师_Dev/doc/ods-fdm.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="图书（3）" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1090">
   <si>
     <t>字段名</t>
   </si>
@@ -1689,9 +1689,6 @@
   </si>
   <si>
     <t>现院系所码</t>
-  </si>
-  <si>
-    <t>YDHXY</t>
   </si>
   <si>
     <t>XZYM</t>
@@ -5628,6 +5625,22 @@
   </si>
   <si>
     <t>开课说明</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDLB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XJYDB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过学号关联基本信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDHXY</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -6538,7 +6551,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>51</v>
@@ -7179,15 +7192,15 @@
         <v>46</v>
       </c>
       <c r="G46" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="58.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>91</v>
@@ -7203,15 +7216,15 @@
         <v>46</v>
       </c>
       <c r="G47" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>92</v>
@@ -7230,15 +7243,15 @@
         <v>128</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>774</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>775</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -7257,7 +7270,7 @@
     </row>
     <row r="50" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>93</v>
@@ -7273,13 +7286,13 @@
         <v>46</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>94</v>
@@ -7295,18 +7308,18 @@
         <v>46</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>780</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>781</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>10</v>
@@ -7319,15 +7332,15 @@
         <v>46</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>95</v>
@@ -7349,7 +7362,7 @@
     </row>
     <row r="54" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>96</v>
@@ -7365,15 +7378,15 @@
         <v>46</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>97</v>
@@ -7414,15 +7427,15 @@
         <v>90</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>789</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -7438,7 +7451,7 @@
         <v>90</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7465,10 +7478,10 @@
     </row>
     <row r="59" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -7484,15 +7497,15 @@
         <v>90</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -7511,10 +7524,10 @@
     </row>
     <row r="61" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -7527,10 +7540,10 @@
         <v>46</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7538,7 +7551,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -7560,7 +7573,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>44</v>
@@ -7582,7 +7595,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -7598,15 +7611,15 @@
         <v>90</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -7625,10 +7638,10 @@
     </row>
     <row r="66" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>798</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>799</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>10</v>
@@ -7641,18 +7654,18 @@
         <v>46</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -7674,7 +7687,7 @@
         <v>108</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -7690,15 +7703,15 @@
         <v>90</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>104</v>
@@ -7720,7 +7733,7 @@
         <v>109</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -7736,7 +7749,7 @@
         <v>90</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7744,7 +7757,7 @@
         <v>110</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -7760,15 +7773,15 @@
         <v>90</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -7787,10 +7800,10 @@
     </row>
     <row r="73" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -7809,10 +7822,10 @@
     </row>
     <row r="74" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -7831,10 +7844,10 @@
     </row>
     <row r="75" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>809</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>810</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>10</v>
@@ -7850,15 +7863,15 @@
         <v>90</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>812</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>813</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>44</v>
@@ -7874,7 +7887,7 @@
         <v>90</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7882,7 +7895,7 @@
         <v>111</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>44</v>
@@ -7898,7 +7911,7 @@
         <v>90</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7906,7 +7919,7 @@
         <v>112</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>44</v>
@@ -7922,7 +7935,7 @@
         <v>90</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7930,7 +7943,7 @@
         <v>113</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>44</v>
@@ -7946,7 +7959,7 @@
         <v>90</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7954,7 +7967,7 @@
         <v>114</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>44</v>
@@ -7970,7 +7983,7 @@
         <v>90</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7978,7 +7991,7 @@
         <v>115</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>44</v>
@@ -7994,7 +8007,7 @@
         <v>90</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8002,7 +8015,7 @@
         <v>116</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>44</v>
@@ -8018,7 +8031,7 @@
         <v>90</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8026,7 +8039,7 @@
         <v>117</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>44</v>
@@ -8042,7 +8055,7 @@
         <v>90</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8050,7 +8063,7 @@
         <v>118</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>44</v>
@@ -8066,7 +8079,7 @@
         <v>90</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8090,7 +8103,7 @@
         <v>90</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -8104,7 +8117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
@@ -8117,7 +8130,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -8161,16 +8174,16 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>837</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>838</v>
-      </c>
       <c r="I3" s="28" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -8178,7 +8191,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -8207,18 +8220,18 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -8233,7 +8246,7 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>146</v>
@@ -8251,7 +8264,7 @@
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>148</v>
@@ -8283,10 +8296,10 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -8294,7 +8307,7 @@
         <v>151</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -8305,18 +8318,18 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>844</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>845</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -8334,7 +8347,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
@@ -8345,18 +8358,18 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>849</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>104</v>
@@ -8367,18 +8380,18 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>851</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>852</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>104</v>
@@ -8393,10 +8406,10 @@
     </row>
     <row r="15" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>104</v>
@@ -8411,10 +8424,10 @@
     </row>
     <row r="16" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -8429,10 +8442,10 @@
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>104</v>
@@ -8447,7 +8460,7 @@
     </row>
     <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>165</v>
@@ -8479,18 +8492,18 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>104</v>
@@ -8505,10 +8518,10 @@
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>104</v>
@@ -8523,10 +8536,10 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>104</v>
@@ -8541,10 +8554,10 @@
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>10</v>
@@ -8559,10 +8572,10 @@
     </row>
     <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -8577,10 +8590,10 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -8595,10 +8608,10 @@
     </row>
     <row r="26" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -8609,18 +8622,18 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -8635,10 +8648,10 @@
     </row>
     <row r="28" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
@@ -8649,15 +8662,15 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>178</v>
@@ -8675,7 +8688,7 @@
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>179</v>
@@ -8693,7 +8706,7 @@
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>180</v>
@@ -8711,7 +8724,7 @@
     </row>
     <row r="32" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>181</v>
@@ -8729,7 +8742,7 @@
     </row>
     <row r="33" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>182</v>
@@ -8743,18 +8756,18 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>104</v>
@@ -8769,7 +8782,7 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>183</v>
@@ -8787,7 +8800,7 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>184</v>
@@ -8805,10 +8818,10 @@
     </row>
     <row r="37" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>104</v>
@@ -8823,10 +8836,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
@@ -8841,10 +8854,10 @@
     </row>
     <row r="39" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>104</v>
@@ -8859,7 +8872,7 @@
     </row>
     <row r="40" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>185</v>
@@ -8877,7 +8890,7 @@
     </row>
     <row r="41" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>186</v>
@@ -8895,7 +8908,7 @@
     </row>
     <row r="42" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>188</v>
@@ -8909,10 +8922,10 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -8931,10 +8944,10 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9315,7 +9328,7 @@
         <v>238</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -9325,16 +9338,16 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="H71" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="I71" s="28" t="s">
         <v>1028</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9342,7 +9355,7 @@
         <v>239</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -9375,10 +9388,10 @@
         <v>191</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -9399,10 +9412,10 @@
         <v>191</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="162" thickBot="1" x14ac:dyDescent="0.3">
@@ -9410,7 +9423,7 @@
         <v>244</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -9425,7 +9438,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="11"/>
       <c r="I75" s="28" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -9446,10 +9459,10 @@
         <v>191</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -9457,10 +9470,10 @@
         <v>245</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D77" s="6">
         <v>20</v>
@@ -9470,10 +9483,10 @@
         <v>191</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I77" s="28"/>
     </row>
@@ -9482,7 +9495,7 @@
         <v>246</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>44</v>
@@ -9522,7 +9535,7 @@
         <v>249</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>44</v>
@@ -9535,10 +9548,10 @@
         <v>192</v>
       </c>
       <c r="G80" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>1034</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9651,7 +9664,7 @@
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9682,10 +9695,10 @@
     </row>
     <row r="93" spans="1:8" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>1052</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>1053</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>10</v>
@@ -9696,18 +9709,18 @@
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>1054</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>1056</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>1057</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>10</v>
@@ -9718,18 +9731,18 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>1059</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>1060</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
@@ -9740,10 +9753,10 @@
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9751,7 +9764,7 @@
         <v>263</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>10</v>
@@ -9762,18 +9775,18 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>1064</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>1065</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>10</v>
@@ -9784,10 +9797,10 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -9795,7 +9808,7 @@
         <v>264</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -9806,10 +9819,10 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9817,7 +9830,7 @@
         <v>265</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>10</v>
@@ -9835,7 +9848,7 @@
         <v>266</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>44</v>
@@ -9853,7 +9866,7 @@
         <v>267</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>44</v>
@@ -9871,7 +9884,7 @@
         <v>268</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>10</v>
@@ -9889,7 +9902,7 @@
         <v>269</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -9907,7 +9920,7 @@
         <v>246</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>44</v>
@@ -9925,7 +9938,7 @@
         <v>240</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>10</v>
@@ -9936,13 +9949,13 @@
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H105" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="I105" t="s">
         <v>1076</v>
-      </c>
-      <c r="I105" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9950,7 +9963,7 @@
         <v>270</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -9968,7 +9981,7 @@
         <v>271</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -9986,7 +9999,7 @@
         <v>272</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>44</v>
@@ -10022,7 +10035,7 @@
         <v>275</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>10</v>
@@ -10033,10 +10046,10 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10044,7 +10057,7 @@
         <v>276</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>10</v>
@@ -10055,10 +10068,10 @@
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -10066,7 +10079,7 @@
         <v>230</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>10</v>
@@ -10077,10 +10090,10 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -10088,7 +10101,7 @@
         <v>277</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -10106,7 +10119,7 @@
         <v>278</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -10124,7 +10137,7 @@
         <v>279</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
@@ -10142,7 +10155,7 @@
         <v>280</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>10</v>
@@ -10157,7 +10170,7 @@
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10188,10 +10201,10 @@
     </row>
     <row r="123" spans="1:9" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>908</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>909</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>10</v>
@@ -10201,21 +10214,21 @@
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G123" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="H123" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>912</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>913</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>10</v>
@@ -10225,21 +10238,21 @@
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>915</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>916</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>10</v>
@@ -10249,13 +10262,13 @@
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10266,28 +10279,28 @@
         <v>194</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>195</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>920</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>921</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>10</v>
@@ -10297,96 +10310,96 @@
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H127" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="I127" t="s">
         <v>922</v>
-      </c>
-      <c r="I127" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="C128" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>925</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>926</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>929</v>
-      </c>
       <c r="C129" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>932</v>
-      </c>
       <c r="C130" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>934</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>935</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>10</v>
@@ -10396,21 +10409,21 @@
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>938</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -10422,18 +10435,18 @@
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="I132" s="23" t="s">
         <v>939</v>
-      </c>
-      <c r="I132" s="23" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>941</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>942</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -10443,21 +10456,21 @@
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>944</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>945</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -10469,10 +10482,10 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="I134" s="23" t="s">
         <v>939</v>
-      </c>
-      <c r="I134" s="23" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10490,44 +10503,44 @@
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>948</v>
-      </c>
       <c r="C136" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="I136" s="23" t="s">
         <v>939</v>
-      </c>
-      <c r="I136" s="23" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>949</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>950</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -10537,18 +10550,18 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10592,13 +10605,13 @@
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G144" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="H144" s="7" t="s">
         <v>953</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10616,21 +10629,21 @@
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>956</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>957</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>10</v>
@@ -10642,10 +10655,10 @@
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I146" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -10663,21 +10676,21 @@
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>908</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>909</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>10</v>
@@ -10687,21 +10700,21 @@
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G148" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="H148" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>960</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>961</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -10711,21 +10724,21 @@
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>963</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>964</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>10</v>
@@ -10737,18 +10750,18 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I150" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>966</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>10</v>
@@ -10760,18 +10773,18 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I151" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>967</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>968</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>10</v>
@@ -10783,42 +10796,42 @@
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I152" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>969</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>970</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>973</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>974</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>10</v>
@@ -10828,21 +10841,21 @@
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>975</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>976</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>10</v>
@@ -10852,69 +10865,69 @@
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>977</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>978</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>980</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>981</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>982</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>983</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
@@ -10926,10 +10939,10 @@
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I158" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10947,13 +10960,13 @@
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -10973,10 +10986,10 @@
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I160" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -10996,10 +11009,10 @@
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I161" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11019,10 +11032,10 @@
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I162" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11040,13 +11053,13 @@
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11064,18 +11077,18 @@
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>216</v>
@@ -11090,10 +11103,10 @@
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11111,16 +11124,16 @@
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H166" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="I166" s="23" t="s">
         <v>989</v>
-      </c>
-      <c r="I166" s="23" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11141,7 +11154,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="26" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11162,7 +11175,7 @@
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="26" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11199,13 +11212,13 @@
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11223,13 +11236,13 @@
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11247,13 +11260,13 @@
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11271,13 +11284,13 @@
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11295,16 +11308,16 @@
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I174" s="23" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11322,16 +11335,16 @@
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I175" s="23" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11351,10 +11364,10 @@
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I176" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11374,15 +11387,15 @@
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I177" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11413,10 +11426,10 @@
     </row>
     <row r="183" spans="1:9" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>1037</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>1038</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>10</v>
@@ -11426,22 +11439,22 @@
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H183" s="27"/>
       <c r="I183" s="30" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>908</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>909</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>10</v>
@@ -11452,10 +11465,10 @@
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11474,10 +11487,10 @@
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H185" s="7" t="s">
         <v>1041</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11496,10 +11509,10 @@
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11518,10 +11531,10 @@
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11529,7 +11542,7 @@
         <v>253</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>10</v>
@@ -11547,7 +11560,7 @@
         <v>255</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>10</v>
@@ -11576,10 +11589,10 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H190" s="6" t="s">
         <v>1047</v>
-      </c>
-      <c r="H190" s="6" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11587,7 +11600,7 @@
         <v>259</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>44</v>
@@ -11598,10 +11611,10 @@
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11620,10 +11633,10 @@
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -11636,8 +11649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11745,7 +11758,7 @@
         <v>282</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11769,7 +11782,7 @@
         <v>282</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11793,7 +11806,7 @@
         <v>282</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11865,7 +11878,7 @@
         <v>282</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11889,7 +11902,7 @@
         <v>282</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11907,13 +11920,13 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>282</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11937,7 +11950,7 @@
         <v>282</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11980,10 +11993,10 @@
         <v>281</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12007,7 +12020,7 @@
         <v>282</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12053,7 +12066,7 @@
         <v>282</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12077,12 +12090,12 @@
         <v>282</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>170</v>
@@ -12101,7 +12114,7 @@
         <v>282</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12125,7 +12138,7 @@
         <v>282</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12264,7 +12277,7 @@
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -12308,13 +12321,13 @@
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12332,13 +12345,13 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12356,10 +12369,10 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>302</v>
@@ -12380,10 +12393,10 @@
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>303</v>
@@ -12404,16 +12417,16 @@
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12431,16 +12444,16 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12458,13 +12471,13 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12472,7 +12485,7 @@
         <v>311</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>104</v>
@@ -12482,10 +12495,10 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -12504,16 +12517,16 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12531,10 +12544,10 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H52" s="6"/>
     </row>
@@ -12543,7 +12556,7 @@
         <v>316</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>10</v>
@@ -12553,13 +12566,13 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12577,13 +12590,13 @@
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>885</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12601,10 +12614,10 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -12623,10 +12636,10 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -12645,10 +12658,10 @@
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>323</v>
@@ -12669,13 +12682,13 @@
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12693,10 +12706,10 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -12715,10 +12728,10 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -12737,17 +12750,17 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>899</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>900</v>
       </c>
       <c r="H61" s="7"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="25.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12791,10 +12804,10 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>899</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>900</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>13</v>
@@ -12818,7 +12831,7 @@
         <v>296</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -12840,7 +12853,7 @@
         <v>296</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -12862,7 +12875,7 @@
         <v>296</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H71" s="6"/>
     </row>
@@ -12884,10 +12897,10 @@
         <v>296</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>900</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12908,7 +12921,7 @@
         <v>296</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H73" s="6"/>
     </row>
@@ -12930,7 +12943,7 @@
         <v>296</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H74" s="6"/>
     </row>
@@ -12939,7 +12952,7 @@
         <v>340</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -12952,10 +12965,10 @@
         <v>296</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -12963,7 +12976,7 @@
         <v>341</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -12976,10 +12989,10 @@
         <v>296</v>
       </c>
       <c r="G76" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>900</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -13000,7 +13013,7 @@
         <v>296</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H77" s="6"/>
     </row>
@@ -13022,7 +13035,7 @@
         <v>296</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -13044,14 +13057,14 @@
         <v>296</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H79" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="25.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13095,10 +13108,10 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>899</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>900</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>13</v>
@@ -13463,7 +13476,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="108" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
         <v>404</v>
       </c>
@@ -14327,7 +14340,7 @@
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -14376,7 +14389,9 @@
       <c r="G166" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="H166" s="7"/>
+      <c r="H166" s="7" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
@@ -14618,7 +14633,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>483</v>
       </c>
@@ -14642,7 +14657,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>486</v>
       </c>
@@ -14666,7 +14681,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>489</v>
       </c>
@@ -14687,15 +14702,15 @@
         <v>453</v>
       </c>
       <c r="H179" s="6" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="4" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
+      <c r="B180" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>10</v>
@@ -14711,15 +14726,15 @@
         <v>453</v>
       </c>
       <c r="H180" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
+      <c r="B181" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>10</v>
@@ -14735,15 +14750,15 @@
         <v>453</v>
       </c>
       <c r="H181" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="4" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
+      <c r="B182" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>10</v>
@@ -14759,15 +14774,15 @@
         <v>453</v>
       </c>
       <c r="H182" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="4" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="4" t="s">
+      <c r="B183" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>100</v>
@@ -14786,7 +14801,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>13</v>
       </c>
@@ -14810,7 +14825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>14</v>
       </c>
@@ -14828,16 +14843,19 @@
         <v>296</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="H185" s="6"/>
-    </row>
-    <row r="186" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+      <c r="H185" s="5"/>
+      <c r="I185" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>104</v>
@@ -14854,12 +14872,12 @@
       </c>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>10</v>
@@ -14875,7 +14893,7 @@
         <v>453</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -14900,7 +14918,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -14924,7 +14942,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -14955,10 +14973,10 @@
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -14975,10 +14993,10 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -14995,10 +15013,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -15015,10 +15033,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -15035,10 +15053,10 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -15091,16 +15109,16 @@
         <v>192</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -15117,10 +15135,10 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -15137,10 +15155,10 @@
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
@@ -15157,10 +15175,10 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
@@ -15177,10 +15195,10 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
@@ -15217,10 +15235,10 @@
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -15237,10 +15255,10 @@
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -15257,10 +15275,10 @@
     </row>
     <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -15277,10 +15295,10 @@
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -15297,10 +15315,10 @@
     </row>
     <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
@@ -15317,10 +15335,10 @@
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
@@ -15337,10 +15355,10 @@
     </row>
     <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
@@ -15357,10 +15375,10 @@
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>17</v>
@@ -15377,10 +15395,10 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -15397,10 +15415,10 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>549</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -15417,10 +15435,10 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -15437,10 +15455,10 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -15460,7 +15478,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
@@ -15497,10 +15515,10 @@
     </row>
     <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
@@ -15514,15 +15532,15 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>10</v>
@@ -15536,15 +15554,15 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
@@ -15561,10 +15579,10 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
@@ -15581,10 +15599,10 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
@@ -15601,10 +15619,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>567</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>10</v>
@@ -15621,10 +15639,10 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>10</v>
@@ -15641,7 +15659,7 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -15672,10 +15690,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>572</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>10</v>
@@ -15692,10 +15710,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>574</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -15712,10 +15730,10 @@
     </row>
     <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>10</v>
@@ -15732,10 +15750,10 @@
     </row>
     <row r="46" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>578</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>10</v>
@@ -15769,15 +15787,15 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -15791,15 +15809,15 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -15813,15 +15831,15 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>581</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>582</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>10</v>
@@ -15838,7 +15856,7 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -15869,10 +15887,10 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -15889,10 +15907,10 @@
     </row>
     <row r="58" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -15909,10 +15927,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -15929,10 +15947,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -15949,16 +15967,16 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>588</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -15969,10 +15987,10 @@
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -15989,10 +16007,10 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>593</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -16009,10 +16027,10 @@
     </row>
     <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -16029,10 +16047,10 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>597</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -16049,10 +16067,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>10</v>
@@ -16069,10 +16087,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>574</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -16089,10 +16107,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -16109,10 +16127,10 @@
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>44</v>
@@ -16129,16 +16147,16 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
@@ -16168,7 +16186,7 @@
   <sheetData>
     <row r="1" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -16236,7 +16254,7 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16257,16 +16275,16 @@
         <v>192</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>609</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -16283,10 +16301,10 @@
     </row>
     <row r="7" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -16303,10 +16321,10 @@
     </row>
     <row r="8" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>10</v>
@@ -16319,22 +16337,22 @@
         <v>191</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
@@ -16342,15 +16360,15 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>619</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
@@ -16364,15 +16382,15 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>622</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
@@ -16386,15 +16404,15 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>624</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
@@ -16411,10 +16429,10 @@
     </row>
     <row r="13" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>625</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>626</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>10</v>
@@ -16427,13 +16445,13 @@
         <v>192</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L13" s="6"/>
     </row>
     <row r="17" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -16504,10 +16522,10 @@
     </row>
     <row r="21" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>10</v>
@@ -16524,10 +16542,10 @@
     </row>
     <row r="22" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>10</v>
@@ -16540,16 +16558,16 @@
         <v>192</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>10</v>
@@ -16562,16 +16580,16 @@
         <v>192</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>10</v>
@@ -16584,16 +16602,16 @@
         <v>192</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>10</v>
@@ -16607,21 +16625,21 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>643</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
@@ -16632,10 +16650,10 @@
     </row>
     <row r="27" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>10</v>
@@ -16652,10 +16670,10 @@
     </row>
     <row r="28" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>647</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>10</v>
@@ -16669,15 +16687,15 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="29" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>10</v>
@@ -16694,10 +16712,10 @@
     </row>
     <row r="30" spans="5:12" ht="59.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>10</v>
@@ -16711,15 +16729,15 @@
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="5:12" ht="75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>10</v>
@@ -16733,15 +16751,15 @@
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>10</v>
@@ -16755,15 +16773,15 @@
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>660</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>10</v>
@@ -16780,10 +16798,10 @@
     </row>
     <row r="34" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>10</v>
@@ -16800,7 +16818,7 @@
     </row>
     <row r="38" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -16871,16 +16889,16 @@
     </row>
     <row r="42" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
@@ -16888,15 +16906,15 @@
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>10</v>
@@ -16913,10 +16931,10 @@
     </row>
     <row r="44" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>668</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>669</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
@@ -16930,15 +16948,15 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>671</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>10</v>
@@ -16955,10 +16973,10 @@
     </row>
     <row r="46" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>10</v>
@@ -16975,10 +16993,10 @@
     </row>
     <row r="47" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>675</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>10</v>
@@ -16995,10 +17013,10 @@
     </row>
     <row r="48" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>10</v>
@@ -17015,10 +17033,10 @@
     </row>
     <row r="49" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>678</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>679</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>10</v>
@@ -17032,15 +17050,15 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>680</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>681</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>10</v>
@@ -17057,10 +17075,10 @@
     </row>
     <row r="51" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>682</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>683</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>10</v>
@@ -17074,15 +17092,15 @@
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>684</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>685</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>10</v>
@@ -17099,10 +17117,10 @@
     </row>
     <row r="53" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>686</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>687</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>10</v>
@@ -17116,15 +17134,15 @@
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>688</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>10</v>
@@ -17138,15 +17156,15 @@
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>690</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>691</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>10</v>
@@ -17163,7 +17181,7 @@
     </row>
     <row r="60" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="61" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17197,7 +17215,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>10</v>
@@ -17231,7 +17249,7 @@
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17312,7 +17330,7 @@
         <v>192</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L67" s="6"/>
     </row>
@@ -17335,7 +17353,7 @@
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -17343,7 +17361,7 @@
         <v>159</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>10</v>
@@ -17356,16 +17374,16 @@
         <v>192</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>696</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>697</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>10</v>
@@ -17382,10 +17400,10 @@
     </row>
     <row r="71" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>699</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>17</v>
@@ -17402,10 +17420,10 @@
     </row>
     <row r="72" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>700</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>701</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>10</v>
@@ -17422,10 +17440,10 @@
     </row>
     <row r="73" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>702</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>703</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>10</v>
@@ -17442,10 +17460,10 @@
     </row>
     <row r="74" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>705</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>10</v>
@@ -17465,7 +17483,7 @@
         <v>415</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>10</v>
@@ -17482,10 +17500,10 @@
     </row>
     <row r="76" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>708</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>10</v>
@@ -17502,10 +17520,10 @@
     </row>
     <row r="77" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>710</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>10</v>
@@ -17522,10 +17540,10 @@
     </row>
     <row r="78" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>711</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>712</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>10</v>
@@ -17542,10 +17560,10 @@
     </row>
     <row r="79" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>713</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>714</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>10</v>
@@ -17559,15 +17577,15 @@
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="5:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>715</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>716</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>10</v>
@@ -17581,15 +17599,15 @@
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="81" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E81" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>718</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>719</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>10</v>
@@ -17629,7 +17647,7 @@
         <v>420</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>10</v>
@@ -17686,10 +17704,10 @@
     </row>
     <row r="86" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>722</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>10</v>
@@ -17706,10 +17724,10 @@
     </row>
     <row r="87" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>723</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>724</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>10</v>
@@ -17722,16 +17740,16 @@
         <v>191</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L87" s="6"/>
     </row>
     <row r="88" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E88" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>726</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>727</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>10</v>
@@ -17748,10 +17766,10 @@
     </row>
     <row r="89" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>728</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>729</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>10</v>
@@ -17768,10 +17786,10 @@
     </row>
     <row r="90" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>730</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>731</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>10</v>
@@ -17788,10 +17806,10 @@
     </row>
     <row r="91" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>732</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>10</v>
@@ -17808,10 +17826,10 @@
     </row>
     <row r="92" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>735</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>10</v>

--- a/重庆二师_Dev/doc/ods-fdm.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1091">
   <si>
     <t>字段名</t>
   </si>
@@ -1680,9 +1680,6 @@
   </si>
   <si>
     <t>原学制</t>
-  </si>
-  <si>
-    <t>YDHXZ</t>
   </si>
   <si>
     <t>XSSYXM</t>
@@ -5641,6 +5638,14 @@
   </si>
   <si>
     <t>YDHXY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDHXZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDQXZ</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -6551,7 +6556,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>51</v>
@@ -7192,15 +7197,15 @@
         <v>46</v>
       </c>
       <c r="G46" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>766</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="58.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>91</v>
@@ -7216,15 +7221,15 @@
         <v>46</v>
       </c>
       <c r="G47" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>92</v>
@@ -7243,15 +7248,15 @@
         <v>128</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>773</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>774</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -7270,7 +7275,7 @@
     </row>
     <row r="50" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>93</v>
@@ -7286,13 +7291,13 @@
         <v>46</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>94</v>
@@ -7308,18 +7313,18 @@
         <v>46</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>779</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>780</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>10</v>
@@ -7332,15 +7337,15 @@
         <v>46</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>95</v>
@@ -7362,7 +7367,7 @@
     </row>
     <row r="54" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>96</v>
@@ -7378,15 +7383,15 @@
         <v>46</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>97</v>
@@ -7427,15 +7432,15 @@
         <v>90</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>787</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -7451,7 +7456,7 @@
         <v>90</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7478,10 +7483,10 @@
     </row>
     <row r="59" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -7497,15 +7502,15 @@
         <v>90</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -7524,10 +7529,10 @@
     </row>
     <row r="61" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -7540,10 +7545,10 @@
         <v>46</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7551,7 +7556,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -7573,7 +7578,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>44</v>
@@ -7595,7 +7600,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -7611,15 +7616,15 @@
         <v>90</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -7638,10 +7643,10 @@
     </row>
     <row r="66" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>797</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>798</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>10</v>
@@ -7654,18 +7659,18 @@
         <v>46</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -7687,7 +7692,7 @@
         <v>108</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -7703,15 +7708,15 @@
         <v>90</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>104</v>
@@ -7733,7 +7738,7 @@
         <v>109</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -7749,7 +7754,7 @@
         <v>90</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7757,7 +7762,7 @@
         <v>110</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -7773,15 +7778,15 @@
         <v>90</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -7800,10 +7805,10 @@
     </row>
     <row r="73" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -7822,10 +7827,10 @@
     </row>
     <row r="74" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -7844,10 +7849,10 @@
     </row>
     <row r="75" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>808</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>809</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>10</v>
@@ -7863,15 +7868,15 @@
         <v>90</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>811</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>812</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>44</v>
@@ -7887,7 +7892,7 @@
         <v>90</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7895,7 +7900,7 @@
         <v>111</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>44</v>
@@ -7911,7 +7916,7 @@
         <v>90</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7919,7 +7924,7 @@
         <v>112</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>44</v>
@@ -7935,7 +7940,7 @@
         <v>90</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7943,7 +7948,7 @@
         <v>113</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>44</v>
@@ -7959,7 +7964,7 @@
         <v>90</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7967,7 +7972,7 @@
         <v>114</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>44</v>
@@ -7983,7 +7988,7 @@
         <v>90</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7991,7 +7996,7 @@
         <v>115</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>44</v>
@@ -8007,7 +8012,7 @@
         <v>90</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8015,7 +8020,7 @@
         <v>116</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>44</v>
@@ -8031,7 +8036,7 @@
         <v>90</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8039,7 +8044,7 @@
         <v>117</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>44</v>
@@ -8055,7 +8060,7 @@
         <v>90</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8063,7 +8068,7 @@
         <v>118</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>44</v>
@@ -8079,7 +8084,7 @@
         <v>90</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8103,7 +8108,7 @@
         <v>90</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -8130,7 +8135,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -8174,16 +8179,16 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>836</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>837</v>
-      </c>
       <c r="I3" s="28" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -8191,7 +8196,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -8220,18 +8225,18 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -8246,7 +8251,7 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>146</v>
@@ -8264,7 +8269,7 @@
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>148</v>
@@ -8296,10 +8301,10 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -8307,7 +8312,7 @@
         <v>151</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -8318,18 +8323,18 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>843</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>844</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -8347,7 +8352,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
@@ -8358,18 +8363,18 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>847</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>848</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>104</v>
@@ -8380,18 +8385,18 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>850</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>851</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>104</v>
@@ -8406,10 +8411,10 @@
     </row>
     <row r="15" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>104</v>
@@ -8424,10 +8429,10 @@
     </row>
     <row r="16" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -8442,10 +8447,10 @@
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>104</v>
@@ -8460,7 +8465,7 @@
     </row>
     <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>165</v>
@@ -8492,18 +8497,18 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>104</v>
@@ -8518,10 +8523,10 @@
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>104</v>
@@ -8536,10 +8541,10 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>104</v>
@@ -8554,10 +8559,10 @@
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>10</v>
@@ -8572,10 +8577,10 @@
     </row>
     <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -8590,10 +8595,10 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -8608,10 +8613,10 @@
     </row>
     <row r="26" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -8622,18 +8627,18 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -8648,10 +8653,10 @@
     </row>
     <row r="28" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
@@ -8662,15 +8667,15 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>178</v>
@@ -8688,7 +8693,7 @@
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>179</v>
@@ -8706,7 +8711,7 @@
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>180</v>
@@ -8724,7 +8729,7 @@
     </row>
     <row r="32" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>181</v>
@@ -8742,7 +8747,7 @@
     </row>
     <row r="33" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>182</v>
@@ -8756,18 +8761,18 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>104</v>
@@ -8782,7 +8787,7 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>183</v>
@@ -8800,7 +8805,7 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>184</v>
@@ -8818,10 +8823,10 @@
     </row>
     <row r="37" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>104</v>
@@ -8836,10 +8841,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
@@ -8854,10 +8859,10 @@
     </row>
     <row r="39" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>104</v>
@@ -8872,7 +8877,7 @@
     </row>
     <row r="40" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>185</v>
@@ -8890,7 +8895,7 @@
     </row>
     <row r="41" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>186</v>
@@ -8908,7 +8913,7 @@
     </row>
     <row r="42" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>188</v>
@@ -8922,10 +8927,10 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -8944,10 +8949,10 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9328,7 +9333,7 @@
         <v>238</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -9338,16 +9343,16 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="H71" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="I71" s="28" t="s">
         <v>1027</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9355,7 +9360,7 @@
         <v>239</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -9388,10 +9393,10 @@
         <v>191</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -9412,10 +9417,10 @@
         <v>191</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="162" thickBot="1" x14ac:dyDescent="0.3">
@@ -9423,7 +9428,7 @@
         <v>244</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -9438,7 +9443,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="11"/>
       <c r="I75" s="28" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -9459,10 +9464,10 @@
         <v>191</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -9470,10 +9475,10 @@
         <v>245</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D77" s="6">
         <v>20</v>
@@ -9483,10 +9488,10 @@
         <v>191</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I77" s="28"/>
     </row>
@@ -9495,7 +9500,7 @@
         <v>246</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>44</v>
@@ -9535,7 +9540,7 @@
         <v>249</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>44</v>
@@ -9548,10 +9553,10 @@
         <v>192</v>
       </c>
       <c r="G80" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>1033</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9664,7 +9669,7 @@
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9695,10 +9700,10 @@
     </row>
     <row r="93" spans="1:8" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>1051</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>1052</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>10</v>
@@ -9709,18 +9714,18 @@
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>1053</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>1055</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>1056</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>10</v>
@@ -9731,18 +9736,18 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>1058</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>1059</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
@@ -9753,10 +9758,10 @@
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9764,7 +9769,7 @@
         <v>263</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>10</v>
@@ -9775,18 +9780,18 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>1063</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>1064</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>10</v>
@@ -9797,10 +9802,10 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -9808,7 +9813,7 @@
         <v>264</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -9819,10 +9824,10 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9830,7 +9835,7 @@
         <v>265</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>10</v>
@@ -9848,7 +9853,7 @@
         <v>266</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>44</v>
@@ -9866,7 +9871,7 @@
         <v>267</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>44</v>
@@ -9884,7 +9889,7 @@
         <v>268</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>10</v>
@@ -9902,7 +9907,7 @@
         <v>269</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -9920,7 +9925,7 @@
         <v>246</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>44</v>
@@ -9938,7 +9943,7 @@
         <v>240</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>10</v>
@@ -9949,13 +9954,13 @@
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H105" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="I105" t="s">
         <v>1075</v>
-      </c>
-      <c r="I105" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9963,7 +9968,7 @@
         <v>270</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -9981,7 +9986,7 @@
         <v>271</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -9999,7 +10004,7 @@
         <v>272</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>44</v>
@@ -10035,7 +10040,7 @@
         <v>275</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>10</v>
@@ -10046,10 +10051,10 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10057,7 +10062,7 @@
         <v>276</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>10</v>
@@ -10068,10 +10073,10 @@
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -10079,7 +10084,7 @@
         <v>230</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>10</v>
@@ -10090,10 +10095,10 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -10101,7 +10106,7 @@
         <v>277</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -10119,7 +10124,7 @@
         <v>278</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -10137,7 +10142,7 @@
         <v>279</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
@@ -10155,7 +10160,7 @@
         <v>280</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>10</v>
@@ -10170,7 +10175,7 @@
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10201,10 +10206,10 @@
     </row>
     <row r="123" spans="1:9" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>907</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>908</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>10</v>
@@ -10214,21 +10219,21 @@
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G123" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="H123" s="7" t="s">
         <v>909</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>911</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>912</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>10</v>
@@ -10238,21 +10243,21 @@
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>914</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>915</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>10</v>
@@ -10262,13 +10267,13 @@
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10279,28 +10284,28 @@
         <v>194</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>195</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>919</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>920</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>10</v>
@@ -10310,96 +10315,96 @@
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H127" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="I127" t="s">
         <v>921</v>
-      </c>
-      <c r="I127" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="C128" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>924</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>925</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>928</v>
-      </c>
       <c r="C129" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>931</v>
-      </c>
       <c r="C130" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>933</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>934</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>10</v>
@@ -10409,21 +10414,21 @@
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>936</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>937</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -10435,18 +10440,18 @@
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="I132" s="23" t="s">
         <v>938</v>
-      </c>
-      <c r="I132" s="23" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>940</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>941</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -10456,21 +10461,21 @@
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>943</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>944</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -10482,10 +10487,10 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="I134" s="23" t="s">
         <v>938</v>
-      </c>
-      <c r="I134" s="23" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10503,44 +10508,44 @@
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>947</v>
-      </c>
       <c r="C136" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="I136" s="23" t="s">
         <v>938</v>
-      </c>
-      <c r="I136" s="23" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>948</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>949</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -10550,18 +10555,18 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10605,13 +10610,13 @@
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G144" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="H144" s="7" t="s">
         <v>952</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10629,21 +10634,21 @@
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>955</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>956</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>10</v>
@@ -10655,10 +10660,10 @@
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I146" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -10676,21 +10681,21 @@
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>907</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>908</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>10</v>
@@ -10700,21 +10705,21 @@
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G148" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="H148" s="5" t="s">
         <v>957</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>959</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>960</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -10724,21 +10729,21 @@
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>962</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>963</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>10</v>
@@ -10750,18 +10755,18 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I150" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>964</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>965</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>10</v>
@@ -10773,18 +10778,18 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I151" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>966</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>967</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>10</v>
@@ -10796,42 +10801,42 @@
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I152" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>968</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>969</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>972</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>973</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>10</v>
@@ -10841,21 +10846,21 @@
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>974</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>975</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>10</v>
@@ -10865,69 +10870,69 @@
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>976</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>977</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>979</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>980</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>981</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>982</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>10</v>
@@ -10939,10 +10944,10 @@
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I158" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10960,13 +10965,13 @@
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -10986,10 +10991,10 @@
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I160" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11009,10 +11014,10 @@
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I161" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11032,10 +11037,10 @@
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I162" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11053,13 +11058,13 @@
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11077,18 +11082,18 @@
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>216</v>
@@ -11103,10 +11108,10 @@
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11124,16 +11129,16 @@
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H166" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="I166" s="23" t="s">
         <v>988</v>
-      </c>
-      <c r="I166" s="23" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11154,7 +11159,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="26" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11175,7 +11180,7 @@
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="26" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11212,13 +11217,13 @@
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11236,13 +11241,13 @@
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11260,13 +11265,13 @@
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11284,13 +11289,13 @@
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11308,16 +11313,16 @@
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I174" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11335,16 +11340,16 @@
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I175" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11364,10 +11369,10 @@
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I176" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11387,15 +11392,15 @@
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I177" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11426,10 +11431,10 @@
     </row>
     <row r="183" spans="1:9" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>1036</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>1037</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>10</v>
@@ -11439,22 +11444,22 @@
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H183" s="27"/>
       <c r="I183" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>907</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>908</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>10</v>
@@ -11465,10 +11470,10 @@
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11487,10 +11492,10 @@
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H185" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11509,10 +11514,10 @@
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11531,10 +11536,10 @@
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11542,7 +11547,7 @@
         <v>253</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>10</v>
@@ -11560,7 +11565,7 @@
         <v>255</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>10</v>
@@ -11589,10 +11594,10 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H190" s="6" t="s">
         <v>1046</v>
-      </c>
-      <c r="H190" s="6" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11600,7 +11605,7 @@
         <v>259</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>44</v>
@@ -11611,10 +11616,10 @@
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11633,10 +11638,10 @@
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -11649,8 +11654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11758,7 +11763,7 @@
         <v>282</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11782,7 +11787,7 @@
         <v>282</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11806,7 +11811,7 @@
         <v>282</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11878,7 +11883,7 @@
         <v>282</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11902,7 +11907,7 @@
         <v>282</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11920,13 +11925,13 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>282</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11950,7 +11955,7 @@
         <v>282</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11993,10 +11998,10 @@
         <v>281</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12020,7 +12025,7 @@
         <v>282</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12066,7 +12071,7 @@
         <v>282</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12090,12 +12095,12 @@
         <v>282</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>170</v>
@@ -12114,7 +12119,7 @@
         <v>282</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12138,7 +12143,7 @@
         <v>282</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12277,7 +12282,7 @@
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -12321,13 +12326,13 @@
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12345,13 +12350,13 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12369,10 +12374,10 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>302</v>
@@ -12393,10 +12398,10 @@
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>303</v>
@@ -12417,16 +12422,16 @@
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12444,16 +12449,16 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12471,13 +12476,13 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12485,7 +12490,7 @@
         <v>311</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>104</v>
@@ -12495,10 +12500,10 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -12517,16 +12522,16 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12544,10 +12549,10 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H52" s="6"/>
     </row>
@@ -12556,7 +12561,7 @@
         <v>316</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>10</v>
@@ -12566,13 +12571,13 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12590,13 +12595,13 @@
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>884</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12614,10 +12619,10 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -12636,10 +12641,10 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -12658,10 +12663,10 @@
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>323</v>
@@ -12682,13 +12687,13 @@
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12706,10 +12711,10 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -12728,10 +12733,10 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -12750,17 +12755,17 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>898</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>899</v>
       </c>
       <c r="H61" s="7"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="25.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12804,10 +12809,10 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>898</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>899</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>13</v>
@@ -12831,7 +12836,7 @@
         <v>296</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -12853,7 +12858,7 @@
         <v>296</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -12875,7 +12880,7 @@
         <v>296</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H71" s="6"/>
     </row>
@@ -12897,10 +12902,10 @@
         <v>296</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>899</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -12921,7 +12926,7 @@
         <v>296</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H73" s="6"/>
     </row>
@@ -12943,7 +12948,7 @@
         <v>296</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H74" s="6"/>
     </row>
@@ -12952,7 +12957,7 @@
         <v>340</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -12965,10 +12970,10 @@
         <v>296</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -12976,7 +12981,7 @@
         <v>341</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -12989,10 +12994,10 @@
         <v>296</v>
       </c>
       <c r="G76" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>899</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -13013,7 +13018,7 @@
         <v>296</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H77" s="6"/>
     </row>
@@ -13035,7 +13040,7 @@
         <v>296</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -13057,14 +13062,14 @@
         <v>296</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H79" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="25.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13108,10 +13113,10 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>898</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>899</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>13</v>
@@ -14340,7 +14345,7 @@
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -14390,7 +14395,7 @@
         <v>453</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -14678,15 +14683,15 @@
         <v>453</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>488</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>10</v>
@@ -14702,15 +14707,15 @@
         <v>453</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>10</v>
@@ -14726,15 +14731,15 @@
         <v>453</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>10</v>
@@ -14750,15 +14755,15 @@
         <v>453</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>10</v>
@@ -14774,15 +14779,15 @@
         <v>453</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>100</v>
@@ -14798,7 +14803,7 @@
         <v>453</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>488</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -14843,19 +14848,19 @@
         <v>296</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H185" s="5"/>
       <c r="I185" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>104</v>
@@ -14874,10 +14879,10 @@
     </row>
     <row r="187" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>10</v>
@@ -14893,7 +14898,7 @@
         <v>453</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -14918,7 +14923,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -14942,7 +14947,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -14973,10 +14978,10 @@
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -14993,10 +14998,10 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -15013,10 +15018,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -15033,10 +15038,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -15053,10 +15058,10 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -15109,16 +15114,16 @@
         <v>192</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -15135,10 +15140,10 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -15155,10 +15160,10 @@
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
@@ -15175,10 +15180,10 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
@@ -15195,10 +15200,10 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>528</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
@@ -15235,10 +15240,10 @@
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -15255,10 +15260,10 @@
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -15275,10 +15280,10 @@
     </row>
     <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -15295,10 +15300,10 @@
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -15315,10 +15320,10 @@
     </row>
     <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
@@ -15335,10 +15340,10 @@
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
@@ -15355,10 +15360,10 @@
     </row>
     <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>542</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
@@ -15375,10 +15380,10 @@
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>17</v>
@@ -15395,10 +15400,10 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>546</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -15415,10 +15420,10 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -15435,10 +15440,10 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -15455,10 +15460,10 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>552</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -15478,7 +15483,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
@@ -15515,10 +15520,10 @@
     </row>
     <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
@@ -15532,15 +15537,15 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>558</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>10</v>
@@ -15554,15 +15559,15 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
@@ -15579,10 +15584,10 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
@@ -15599,10 +15604,10 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>564</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
@@ -15619,10 +15624,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>10</v>
@@ -15639,10 +15644,10 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>10</v>
@@ -15659,7 +15664,7 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -15690,10 +15695,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>10</v>
@@ -15710,10 +15715,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>573</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -15730,10 +15735,10 @@
     </row>
     <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>575</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>10</v>
@@ -15750,10 +15755,10 @@
     </row>
     <row r="46" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>577</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>10</v>
@@ -15787,15 +15792,15 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>579</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -15809,15 +15814,15 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>558</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -15831,15 +15836,15 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>581</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>10</v>
@@ -15856,7 +15861,7 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -15887,10 +15892,10 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -15907,10 +15912,10 @@
     </row>
     <row r="58" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -15927,10 +15932,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -15947,10 +15952,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -15967,16 +15972,16 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -15987,10 +15992,10 @@
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>590</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -16007,10 +16012,10 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -16027,10 +16032,10 @@
     </row>
     <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>594</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -16047,10 +16052,10 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>596</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -16067,10 +16072,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>10</v>
@@ -16087,10 +16092,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>573</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -16107,10 +16112,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>599</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -16127,10 +16132,10 @@
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>44</v>
@@ -16147,16 +16152,16 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
@@ -16186,7 +16191,7 @@
   <sheetData>
     <row r="1" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -16254,7 +16259,7 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16275,16 +16280,16 @@
         <v>192</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -16301,10 +16306,10 @@
     </row>
     <row r="7" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -16321,10 +16326,10 @@
     </row>
     <row r="8" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>10</v>
@@ -16337,22 +16342,22 @@
         <v>191</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
@@ -16360,15 +16365,15 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>618</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
@@ -16382,15 +16387,15 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
@@ -16404,15 +16409,15 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
@@ -16429,10 +16434,10 @@
     </row>
     <row r="13" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>10</v>
@@ -16445,13 +16450,13 @@
         <v>192</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L13" s="6"/>
     </row>
     <row r="17" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -16522,10 +16527,10 @@
     </row>
     <row r="21" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>10</v>
@@ -16542,10 +16547,10 @@
     </row>
     <row r="22" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>10</v>
@@ -16558,16 +16563,16 @@
         <v>192</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>634</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>10</v>
@@ -16580,16 +16585,16 @@
         <v>192</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>10</v>
@@ -16602,16 +16607,16 @@
         <v>192</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>640</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>10</v>
@@ -16625,21 +16630,21 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
@@ -16650,10 +16655,10 @@
     </row>
     <row r="27" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>644</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>10</v>
@@ -16670,10 +16675,10 @@
     </row>
     <row r="28" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>10</v>
@@ -16687,15 +16692,15 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="29" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>649</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>10</v>
@@ -16712,10 +16717,10 @@
     </row>
     <row r="30" spans="5:12" ht="59.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>651</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>10</v>
@@ -16729,15 +16734,15 @@
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="5:12" ht="75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>654</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>10</v>
@@ -16751,15 +16756,15 @@
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>10</v>
@@ -16773,15 +16778,15 @@
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>10</v>
@@ -16798,10 +16803,10 @@
     </row>
     <row r="34" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>10</v>
@@ -16818,7 +16823,7 @@
     </row>
     <row r="38" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -16889,16 +16894,16 @@
     </row>
     <row r="42" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
@@ -16906,15 +16911,15 @@
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>666</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>10</v>
@@ -16931,10 +16936,10 @@
     </row>
     <row r="44" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
@@ -16948,15 +16953,15 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>669</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>10</v>
@@ -16973,10 +16978,10 @@
     </row>
     <row r="46" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>10</v>
@@ -16993,10 +16998,10 @@
     </row>
     <row r="47" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>10</v>
@@ -17013,10 +17018,10 @@
     </row>
     <row r="48" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>676</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>10</v>
@@ -17033,10 +17038,10 @@
     </row>
     <row r="49" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>678</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>10</v>
@@ -17050,15 +17055,15 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>680</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>10</v>
@@ -17075,10 +17080,10 @@
     </row>
     <row r="51" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>681</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>682</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>10</v>
@@ -17092,15 +17097,15 @@
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>10</v>
@@ -17117,10 +17122,10 @@
     </row>
     <row r="53" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>685</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>10</v>
@@ -17134,15 +17139,15 @@
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>688</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>10</v>
@@ -17156,15 +17161,15 @@
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>690</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>10</v>
@@ -17181,7 +17186,7 @@
     </row>
     <row r="60" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="61" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17215,7 +17220,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>10</v>
@@ -17249,7 +17254,7 @@
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17330,7 +17335,7 @@
         <v>192</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L67" s="6"/>
     </row>
@@ -17353,7 +17358,7 @@
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -17361,7 +17366,7 @@
         <v>159</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>10</v>
@@ -17374,16 +17379,16 @@
         <v>192</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>695</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>696</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>10</v>
@@ -17400,10 +17405,10 @@
     </row>
     <row r="71" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>698</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>17</v>
@@ -17420,10 +17425,10 @@
     </row>
     <row r="72" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>10</v>
@@ -17440,10 +17445,10 @@
     </row>
     <row r="73" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>701</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>702</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>10</v>
@@ -17460,10 +17465,10 @@
     </row>
     <row r="74" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>703</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>704</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>10</v>
@@ -17483,7 +17488,7 @@
         <v>415</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>10</v>
@@ -17500,10 +17505,10 @@
     </row>
     <row r="76" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>706</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>707</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>10</v>
@@ -17520,10 +17525,10 @@
     </row>
     <row r="77" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>708</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>709</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>10</v>
@@ -17540,10 +17545,10 @@
     </row>
     <row r="78" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>710</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>711</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>10</v>
@@ -17560,10 +17565,10 @@
     </row>
     <row r="79" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>713</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>10</v>
@@ -17577,15 +17582,15 @@
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="80" spans="5:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>715</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>10</v>
@@ -17599,15 +17604,15 @@
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="81" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E81" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>718</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>10</v>
@@ -17647,7 +17652,7 @@
         <v>420</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>10</v>
@@ -17704,10 +17709,10 @@
     </row>
     <row r="86" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>720</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>721</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>10</v>
@@ -17724,10 +17729,10 @@
     </row>
     <row r="87" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>722</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>723</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>10</v>
@@ -17740,16 +17745,16 @@
         <v>191</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L87" s="6"/>
     </row>
     <row r="88" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E88" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>725</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>726</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>10</v>
@@ -17766,10 +17771,10 @@
     </row>
     <row r="89" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>727</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>728</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>10</v>
@@ -17786,10 +17791,10 @@
     </row>
     <row r="90" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>729</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>10</v>
@@ -17806,10 +17811,10 @@
     </row>
     <row r="91" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>731</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>732</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>10</v>
@@ -17826,10 +17831,10 @@
     </row>
     <row r="92" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>734</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>10</v>
